--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_11_13.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/40/Output_11_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1380860.429934255</v>
+        <v>-1381635.357162626</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1421817.811880379</v>
+        <v>1421817.811880378</v>
       </c>
     </row>
     <row r="8">
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7.293863480540836</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="G8" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="H8" t="n">
-        <v>5.790213887153438</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>12.42480023313186</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>13.08407736769427</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>13.08407736769427</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>261.924849244886</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>234.8131720080893</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>285.5023027340318</v>
       </c>
       <c r="G11" t="n">
-        <v>292.5415536609156</v>
+        <v>292.5415536609157</v>
       </c>
       <c r="H11" t="n">
         <v>211.0099843746991</v>
       </c>
       <c r="I11" t="n">
-        <v>63.32179708266406</v>
+        <v>63.32179708266411</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1418,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>72.18626889642337</v>
+        <v>72.18626889642343</v>
       </c>
       <c r="T11" t="n">
-        <v>98.89002921314304</v>
+        <v>17.77109659062327</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>98.51105091669464</v>
+        <v>206.7416607760103</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>264.8955110047267</v>
+        <v>264.8955110047268</v>
       </c>
     </row>
     <row r="12">
@@ -1455,19 +1455,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E12" t="n">
-        <v>34.24187296066475</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F12" t="n">
-        <v>21.71467133704022</v>
+        <v>129.5405304212744</v>
       </c>
       <c r="G12" t="n">
-        <v>135.7441023157859</v>
+        <v>13.95254156927687</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>76.89390780467002</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>77.36580747901375</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>41.9857465319385</v>
+        <v>41.98574653193853</v>
       </c>
       <c r="T12" t="n">
-        <v>75.46597050287085</v>
+        <v>75.46597050287087</v>
       </c>
       <c r="U12" t="n">
         <v>102.8472539595569</v>
       </c>
       <c r="V12" t="n">
-        <v>110.117170293146</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
-        <v>128.197786003491</v>
+        <v>249.98934675</v>
       </c>
       <c r="X12" t="n">
-        <v>158.0277734090289</v>
+        <v>82.67006886196921</v>
       </c>
       <c r="Y12" t="n">
-        <v>203.671151418586</v>
+        <v>81.87959067207697</v>
       </c>
     </row>
     <row r="13">
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>58.29213074417473</v>
+        <v>58.29213074417476</v>
       </c>
       <c r="C13" t="n">
-        <v>45.54499218469326</v>
+        <v>45.54499218469329</v>
       </c>
       <c r="D13" t="n">
-        <v>27.21400576801028</v>
+        <v>27.21400576801031</v>
       </c>
       <c r="E13" t="n">
-        <v>25.1830634266901</v>
+        <v>25.18306342669013</v>
       </c>
       <c r="F13" t="n">
-        <v>12.59161310044347</v>
+        <v>24.36746066329545</v>
       </c>
       <c r="G13" t="n">
-        <v>45.86403350508809</v>
+        <v>45.86403350508811</v>
       </c>
       <c r="H13" t="n">
-        <v>37.7620858480108</v>
+        <v>37.76208584801082</v>
       </c>
       <c r="I13" t="n">
-        <v>24.93012790076659</v>
+        <v>24.93012790076662</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.07833528768288</v>
+        <v>41.0783352876829</v>
       </c>
       <c r="S13" t="n">
-        <v>96.4879571357734</v>
+        <v>96.48795713577343</v>
       </c>
       <c r="T13" t="n">
-        <v>105.541109800452</v>
+        <v>93.76526223759907</v>
       </c>
       <c r="U13" t="n">
-        <v>164.2479462984545</v>
+        <v>164.2479462984546</v>
       </c>
       <c r="V13" t="n">
         <v>131.1447903204301</v>
@@ -1594,7 +1594,7 @@
         <v>104.3487991858002</v>
       </c>
       <c r="Y13" t="n">
-        <v>96.95711312125914</v>
+        <v>96.95711312125917</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>261.924849244886</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>245.1935349324336</v>
+        <v>245.1935349324335</v>
       </c>
       <c r="D14" t="n">
         <v>234.8131720080893</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>261.3264750087783</v>
       </c>
       <c r="F14" t="n">
-        <v>285.5023027340318</v>
+        <v>100.9430621285806</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>292.5415536609156</v>
       </c>
       <c r="H14" t="n">
-        <v>211.0099843746991</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>72.18626889642339</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.767103411287766</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>129.6444707503229</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>206.7416607760103</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>249.0700383846603</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>264.8955110047267</v>
       </c>
     </row>
     <row r="15">
@@ -1698,7 +1698,7 @@
         <v>129.5405304212746</v>
       </c>
       <c r="G15" t="n">
-        <v>13.95254156927684</v>
+        <v>13.95254156927681</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1734,25 +1734,25 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>41.9857465319385</v>
+        <v>41.98574653193847</v>
       </c>
       <c r="T15" t="n">
-        <v>75.46597050287085</v>
+        <v>75.46597050287082</v>
       </c>
       <c r="U15" t="n">
-        <v>102.8472539595569</v>
+        <v>102.8472539595568</v>
       </c>
       <c r="V15" t="n">
-        <v>110.117170293146</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>128.1977860034909</v>
       </c>
       <c r="X15" t="n">
-        <v>82.67006886196918</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>81.87959067207692</v>
       </c>
     </row>
     <row r="16">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.29213074417473</v>
+        <v>58.2921307441747</v>
       </c>
       <c r="C16" t="n">
-        <v>45.54499218469326</v>
+        <v>45.54499218469323</v>
       </c>
       <c r="D16" t="n">
-        <v>15.4381582051588</v>
+        <v>27.21400576801025</v>
       </c>
       <c r="E16" t="n">
-        <v>25.1830634266901</v>
+        <v>25.18306342669007</v>
       </c>
       <c r="F16" t="n">
-        <v>24.36746066329542</v>
+        <v>24.36746066329539</v>
       </c>
       <c r="G16" t="n">
-        <v>45.86403350508808</v>
+        <v>45.86403350508805</v>
       </c>
       <c r="H16" t="n">
-        <v>37.76208584801079</v>
+        <v>37.76208584801076</v>
       </c>
       <c r="I16" t="n">
-        <v>24.93012790076659</v>
+        <v>24.93012790076656</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.07833528768288</v>
+        <v>41.07833528768285</v>
       </c>
       <c r="S16" t="n">
-        <v>96.4879571357734</v>
+        <v>84.71210957292266</v>
       </c>
       <c r="T16" t="n">
         <v>105.541109800452</v>
@@ -1822,16 +1822,16 @@
         <v>164.2479462984545</v>
       </c>
       <c r="V16" t="n">
-        <v>131.1447903204301</v>
+        <v>131.14479032043</v>
       </c>
       <c r="W16" t="n">
-        <v>164.3010161409065</v>
+        <v>164.3010161409064</v>
       </c>
       <c r="X16" t="n">
-        <v>104.3487991858002</v>
+        <v>104.3487991858001</v>
       </c>
       <c r="Y16" t="n">
-        <v>96.95711312125914</v>
+        <v>96.95711312125911</v>
       </c>
     </row>
     <row r="17">
@@ -1898,7 +1898,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>27.75957391653827</v>
+        <v>27.75957391653826</v>
       </c>
       <c r="V17" t="n">
         <v>104.8567639422257</v>
@@ -1926,22 +1926,22 @@
         <v>171.025583927401</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E18" t="n">
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>122.0509823838576</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>41.68253036047915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>77.36580747901375</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,10 +1977,10 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>224.6388147060659</v>
+        <v>0.9623571257722704</v>
       </c>
       <c r="V18" t="n">
-        <v>231.9087310396551</v>
+        <v>8.232273459361465</v>
       </c>
       <c r="W18" t="n">
         <v>249.98934675</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>3.656212966667407</v>
+        <v>199.8691442759694</v>
       </c>
       <c r="U19" t="n">
         <v>62.36304946466996</v>
@@ -2062,7 +2062,7 @@
         <v>29.2598934866455</v>
       </c>
       <c r="W19" t="n">
-        <v>258.6290506164239</v>
+        <v>62.41611930712187</v>
       </c>
       <c r="X19" t="n">
         <v>2.463902352015594</v>
@@ -2090,7 +2090,7 @@
         <v>159.4415781749938</v>
       </c>
       <c r="F20" t="n">
-        <v>183.6174059002472</v>
+        <v>183.6174059002469</v>
       </c>
       <c r="G20" t="n">
         <v>190.6566568271311</v>
@@ -2172,13 +2172,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>135.7441023157859</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>76.89390780467002</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2217,7 +2217,7 @@
         <v>0.9623571257722704</v>
       </c>
       <c r="V21" t="n">
-        <v>130.7551555175631</v>
+        <v>71.90496100644705</v>
       </c>
       <c r="W21" t="n">
         <v>249.98934675</v>
@@ -2293,7 +2293,7 @@
         <v>3.656212966667407</v>
       </c>
       <c r="U22" t="n">
-        <v>258.5759807739719</v>
+        <v>62.36304946466996</v>
       </c>
       <c r="V22" t="n">
         <v>29.2598934866455</v>
@@ -2302,7 +2302,7 @@
         <v>62.41611930712187</v>
       </c>
       <c r="X22" t="n">
-        <v>2.463902352015594</v>
+        <v>198.6768336613175</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2372,7 +2372,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>27.75957391653827</v>
+        <v>27.75957391653826</v>
       </c>
       <c r="V23" t="n">
         <v>104.8567639422257</v>
@@ -2406,7 +2406,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F24" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0.9623571257722704</v>
+        <v>120.2089214918992</v>
       </c>
       <c r="V24" t="n">
-        <v>207.6490633222341</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
         <v>249.98934675</v>
@@ -2488,16 +2488,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>36.6592847147821</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.5536465945199</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>72.29542115705792</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>3.656212966667407</v>
       </c>
       <c r="U25" t="n">
-        <v>186.2805596169142</v>
+        <v>62.36304946466996</v>
       </c>
       <c r="V25" t="n">
         <v>29.2598934866455</v>
@@ -2555,7 +2555,7 @@
         <v>241.3707309157292</v>
       </c>
       <c r="C26" t="n">
-        <v>224.6394166032768</v>
+        <v>224.6394166032767</v>
       </c>
       <c r="D26" t="n">
         <v>214.2590536789325</v>
@@ -2573,7 +2573,7 @@
         <v>190.4558660455423</v>
       </c>
       <c r="I26" t="n">
-        <v>42.76767875350728</v>
+        <v>42.76767875350725</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>51.6321505672666</v>
+        <v>51.63215056726656</v>
       </c>
       <c r="T26" t="n">
-        <v>78.33591088398626</v>
+        <v>78.33591088398623</v>
       </c>
       <c r="U26" t="n">
-        <v>109.0903524211661</v>
+        <v>109.090352421166</v>
       </c>
       <c r="V26" t="n">
         <v>186.1875424468535</v>
@@ -2634,19 +2634,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
-        <v>171.025583927401</v>
+        <v>28.6799048517351</v>
       </c>
       <c r="D27" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E27" t="n">
-        <v>13.68775463150797</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>1.160553007883408</v>
       </c>
       <c r="G27" t="n">
-        <v>135.7441023157859</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>107.7669209074722</v>
@@ -2682,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>163.7773072784476</v>
+        <v>139.936714628153</v>
       </c>
       <c r="T27" t="n">
-        <v>180.0185153589652</v>
+        <v>197.2575312493799</v>
       </c>
       <c r="U27" t="n">
         <v>224.6388147060659</v>
@@ -2697,10 +2697,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>62.11595053281241</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
-        <v>61.32547234292016</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="28">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>37.73801241501795</v>
+        <v>37.73801241501792</v>
       </c>
       <c r="C28" t="n">
-        <v>24.99087385553648</v>
+        <v>24.99087385553645</v>
       </c>
       <c r="D28" t="n">
-        <v>6.659887438853502</v>
+        <v>6.659887438853474</v>
       </c>
       <c r="E28" t="n">
-        <v>4.628945097533318</v>
+        <v>4.62894509753329</v>
       </c>
       <c r="F28" t="n">
-        <v>3.813342334138639</v>
+        <v>3.813342334138611</v>
       </c>
       <c r="G28" t="n">
-        <v>25.3099151759313</v>
+        <v>25.30991517593127</v>
       </c>
       <c r="H28" t="n">
-        <v>17.20796751885401</v>
+        <v>17.20796751885398</v>
       </c>
       <c r="I28" t="n">
-        <v>4.376009571609806</v>
+        <v>4.37600957160978</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.52421695852609</v>
+        <v>20.52421695852606</v>
       </c>
       <c r="S28" t="n">
-        <v>75.93383880661662</v>
+        <v>75.93383880661659</v>
       </c>
       <c r="T28" t="n">
-        <v>84.98699147129521</v>
+        <v>84.98699147129518</v>
       </c>
       <c r="U28" t="n">
-        <v>143.6938279692978</v>
+        <v>143.6938279692977</v>
       </c>
       <c r="V28" t="n">
         <v>110.5906719912733</v>
       </c>
       <c r="W28" t="n">
-        <v>143.7468978117497</v>
+        <v>143.7468978117496</v>
       </c>
       <c r="X28" t="n">
-        <v>83.7946808566434</v>
+        <v>83.79468085664337</v>
       </c>
       <c r="Y28" t="n">
-        <v>76.40299479210236</v>
+        <v>76.40299479210233</v>
       </c>
     </row>
     <row r="29">
@@ -2883,7 +2883,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G30" t="n">
-        <v>83.9263282571775</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>77.36580747901375</v>
       </c>
       <c r="S30" t="n">
-        <v>21.43162820278172</v>
+        <v>27.99214898094528</v>
       </c>
       <c r="T30" t="n">
         <v>54.91185217371407</v>
@@ -2968,7 +2968,7 @@
         <v>17.20796751885401</v>
       </c>
       <c r="I31" t="n">
-        <v>4.376009571609806</v>
+        <v>4.376009571609808</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>237.5275060104501</v>
+        <v>237.52750601045</v>
       </c>
       <c r="C32" t="n">
-        <v>220.7961916979977</v>
+        <v>220.7961916979976</v>
       </c>
       <c r="D32" t="n">
-        <v>210.4158287736535</v>
+        <v>210.4158287736534</v>
       </c>
       <c r="E32" t="n">
-        <v>236.9291317743425</v>
+        <v>236.9291317743424</v>
       </c>
       <c r="F32" t="n">
-        <v>261.1049594995959</v>
+        <v>261.1049594995958</v>
       </c>
       <c r="G32" t="n">
-        <v>268.1442104264798</v>
+        <v>268.1442104264797</v>
       </c>
       <c r="H32" t="n">
         <v>186.6126411402632</v>
       </c>
       <c r="I32" t="n">
-        <v>38.92445384822821</v>
+        <v>38.92445384822813</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.78892566198752</v>
+        <v>47.78892566198743</v>
       </c>
       <c r="T32" t="n">
-        <v>74.49268597870719</v>
+        <v>74.4926859787071</v>
       </c>
       <c r="U32" t="n">
-        <v>105.247127515887</v>
+        <v>105.2471275158869</v>
       </c>
       <c r="V32" t="n">
-        <v>182.3443175415744</v>
+        <v>182.3443175415743</v>
       </c>
       <c r="W32" t="n">
-        <v>204.3412130196097</v>
+        <v>204.3412130196096</v>
       </c>
       <c r="X32" t="n">
-        <v>224.6726951502245</v>
+        <v>224.6726951502244</v>
       </c>
       <c r="Y32" t="n">
-        <v>240.4981677702909</v>
+        <v>240.4981677702908</v>
       </c>
     </row>
     <row r="33">
@@ -3117,7 +3117,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>76.89390780467002</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3156,10 +3156,10 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>17.58840329750265</v>
+        <v>29.62460166317288</v>
       </c>
       <c r="T33" t="n">
-        <v>142.6814053361709</v>
+        <v>197.2575312493799</v>
       </c>
       <c r="U33" t="n">
         <v>224.6388147060659</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>33.89478750973888</v>
+        <v>33.89478750973879</v>
       </c>
       <c r="C34" t="n">
-        <v>21.14764895025741</v>
+        <v>21.14764895025732</v>
       </c>
       <c r="D34" t="n">
-        <v>2.81666253357443</v>
+        <v>2.816662533574345</v>
       </c>
       <c r="E34" t="n">
-        <v>0.7857201922542458</v>
+        <v>0.7857201922541606</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>21.46669027065223</v>
+        <v>21.46669027065214</v>
       </c>
       <c r="H34" t="n">
-        <v>13.36474261357494</v>
+        <v>13.36474261357486</v>
       </c>
       <c r="I34" t="n">
-        <v>0.5327846663307341</v>
+        <v>0.5327846663306506</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.68099205324702</v>
+        <v>16.68099205324694</v>
       </c>
       <c r="S34" t="n">
-        <v>72.09061390133755</v>
+        <v>72.09061390133746</v>
       </c>
       <c r="T34" t="n">
-        <v>81.14376656601614</v>
+        <v>81.14376656601605</v>
       </c>
       <c r="U34" t="n">
-        <v>139.8506030640187</v>
+        <v>139.8506030640186</v>
       </c>
       <c r="V34" t="n">
-        <v>106.7474470859942</v>
+        <v>106.7474470859941</v>
       </c>
       <c r="W34" t="n">
-        <v>139.9036729064706</v>
+        <v>139.9036729064705</v>
       </c>
       <c r="X34" t="n">
-        <v>79.95145595136432</v>
+        <v>79.95145595136424</v>
       </c>
       <c r="Y34" t="n">
-        <v>72.55976988682329</v>
+        <v>72.5597698868232</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>189.7385803484625</v>
+        <v>189.7385803484626</v>
       </c>
       <c r="C35" t="n">
-        <v>173.0072660360101</v>
+        <v>173.0072660360102</v>
       </c>
       <c r="D35" t="n">
         <v>162.6269031116659</v>
       </c>
       <c r="E35" t="n">
-        <v>189.1402061123549</v>
+        <v>189.140206112355</v>
       </c>
       <c r="F35" t="n">
-        <v>213.3160338376083</v>
+        <v>213.3160338376084</v>
       </c>
       <c r="G35" t="n">
-        <v>220.3552847644922</v>
+        <v>220.3552847644923</v>
       </c>
       <c r="H35" t="n">
         <v>138.8237154782757</v>
@@ -3317,13 +3317,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>26.70376031671961</v>
+        <v>26.70376031671967</v>
       </c>
       <c r="U35" t="n">
-        <v>57.45820185389942</v>
+        <v>57.45820185389948</v>
       </c>
       <c r="V35" t="n">
-        <v>134.5553918795868</v>
+        <v>134.5553918795869</v>
       </c>
       <c r="W35" t="n">
         <v>156.5522873576221</v>
@@ -3332,7 +3332,7 @@
         <v>176.8837694882369</v>
       </c>
       <c r="Y35" t="n">
-        <v>192.7092421083033</v>
+        <v>192.7092421083034</v>
       </c>
     </row>
     <row r="36">
@@ -3357,7 +3357,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G36" t="n">
-        <v>131.8714686608915</v>
+        <v>84.70618354636068</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3390,16 +3390,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>77.36580747901375</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>163.7773072784476</v>
       </c>
       <c r="T36" t="n">
-        <v>3.279701606447417</v>
+        <v>3.279701606447474</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6388147060659</v>
+        <v>30.66098506313348</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.30168823934997</v>
+        <v>24.30168823935003</v>
       </c>
       <c r="T37" t="n">
-        <v>33.35484090402856</v>
+        <v>33.35484090402861</v>
       </c>
       <c r="U37" t="n">
-        <v>92.06167740203111</v>
+        <v>92.06167740203117</v>
       </c>
       <c r="V37" t="n">
-        <v>58.95852142400665</v>
+        <v>58.9585214240067</v>
       </c>
       <c r="W37" t="n">
-        <v>92.11474724448303</v>
+        <v>92.11474724448308</v>
       </c>
       <c r="X37" t="n">
-        <v>32.16253028937675</v>
+        <v>32.1625302893768</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.77084422483571</v>
+        <v>24.77084422483577</v>
       </c>
     </row>
     <row r="38">
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>76.89390780467002</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,16 +3627,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>77.36580747901375</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>135.151170267339</v>
+        <v>3.279701606447474</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6388147060659</v>
+        <v>202.2505680832726</v>
       </c>
       <c r="V39" t="n">
         <v>231.9087310396551</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>24.30168823935002</v>
+        <v>24.30168823935003</v>
       </c>
       <c r="T40" t="n">
         <v>33.35484090402861</v>
@@ -3743,19 +3743,19 @@
         <v>173.0072660360102</v>
       </c>
       <c r="D41" t="n">
-        <v>162.626903111666</v>
+        <v>162.6269031116659</v>
       </c>
       <c r="E41" t="n">
-        <v>189.1402061123551</v>
+        <v>189.140206112355</v>
       </c>
       <c r="F41" t="n">
         <v>213.3160338376084</v>
       </c>
       <c r="G41" t="n">
-        <v>220.3552847644923</v>
+        <v>220.3552847644922</v>
       </c>
       <c r="H41" t="n">
-        <v>138.8237154782758</v>
+        <v>138.8237154782757</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>26.70376031671972</v>
+        <v>26.70376031671964</v>
       </c>
       <c r="U41" t="n">
-        <v>57.45820185389954</v>
+        <v>57.45820185389945</v>
       </c>
       <c r="V41" t="n">
         <v>134.5553918795869</v>
       </c>
       <c r="W41" t="n">
-        <v>156.5522873576222</v>
+        <v>156.5522873576221</v>
       </c>
       <c r="X41" t="n">
-        <v>176.883769488237</v>
+        <v>176.8837694882369</v>
       </c>
       <c r="Y41" t="n">
-        <v>192.7092421083034</v>
+        <v>192.7092421083033</v>
       </c>
     </row>
     <row r="42">
@@ -3822,19 +3822,19 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>135.7441023157859</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>107.7669209074722</v>
       </c>
       <c r="I42" t="n">
         <v>76.89390780467002</v>
@@ -3867,7 +3867,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>63.14079735539863</v>
       </c>
       <c r="T42" t="n">
         <v>197.2575312493799</v>
@@ -3882,10 +3882,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>123.6950881489137</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.693321775653629</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>24.30168823935008</v>
+        <v>24.30168823935</v>
       </c>
       <c r="T43" t="n">
-        <v>33.35484090402867</v>
+        <v>33.35484090402858</v>
       </c>
       <c r="U43" t="n">
-        <v>92.06167740203122</v>
+        <v>92.06167740203114</v>
       </c>
       <c r="V43" t="n">
-        <v>58.95852142400676</v>
+        <v>58.95852142400668</v>
       </c>
       <c r="W43" t="n">
-        <v>92.11474724448314</v>
+        <v>92.11474724448306</v>
       </c>
       <c r="X43" t="n">
-        <v>32.16253028937686</v>
+        <v>32.16253028937678</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.77084422483583</v>
+        <v>24.77084422483574</v>
       </c>
     </row>
     <row r="44">
@@ -3980,10 +3980,10 @@
         <v>173.0072660360102</v>
       </c>
       <c r="D44" t="n">
-        <v>162.626903111666</v>
+        <v>162.6269031116659</v>
       </c>
       <c r="E44" t="n">
-        <v>189.1402061123551</v>
+        <v>189.140206112355</v>
       </c>
       <c r="F44" t="n">
         <v>213.3160338376084</v>
@@ -3992,7 +3992,7 @@
         <v>220.3552847644923</v>
       </c>
       <c r="H44" t="n">
-        <v>138.8237154782758</v>
+        <v>138.8237154782757</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>26.70376031671972</v>
+        <v>26.70376031671967</v>
       </c>
       <c r="U44" t="n">
-        <v>57.45820185389954</v>
+        <v>57.45820185389948</v>
       </c>
       <c r="V44" t="n">
         <v>134.5553918795869</v>
       </c>
       <c r="W44" t="n">
-        <v>156.5522873576222</v>
+        <v>156.5522873576221</v>
       </c>
       <c r="X44" t="n">
-        <v>176.883769488237</v>
+        <v>176.8837694882369</v>
       </c>
       <c r="Y44" t="n">
         <v>192.7092421083034</v>
@@ -4071,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>107.7669209074722</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>76.89390780467002</v>
@@ -4104,16 +4104,16 @@
         <v>77.36580747901375</v>
       </c>
       <c r="S45" t="n">
-        <v>163.7773072784476</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>97.30288608360009</v>
+        <v>3.279701606447474</v>
       </c>
       <c r="U45" t="n">
-        <v>30.66098506313354</v>
+        <v>202.2505680832726</v>
       </c>
       <c r="V45" t="n">
-        <v>37.93090139672273</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
         <v>249.98934675</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>24.30168823935008</v>
+        <v>24.30168823935003</v>
       </c>
       <c r="T46" t="n">
-        <v>33.35484090402867</v>
+        <v>33.35484090402861</v>
       </c>
       <c r="U46" t="n">
-        <v>92.06167740203122</v>
+        <v>92.06167740203117</v>
       </c>
       <c r="V46" t="n">
-        <v>58.95852142400676</v>
+        <v>58.9585214240067</v>
       </c>
       <c r="W46" t="n">
-        <v>92.11474724448314</v>
+        <v>92.11474724448308</v>
       </c>
       <c r="X46" t="n">
-        <v>32.16253028937686</v>
+        <v>32.1625302893768</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.77084422483583</v>
+        <v>24.77084422483577</v>
       </c>
     </row>
   </sheetData>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="C8" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="D8" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="E8" t="n">
+        <v>59.4190616153237</v>
+      </c>
+      <c r="F8" t="n">
+        <v>44.41424807610054</v>
+      </c>
+      <c r="G8" t="n">
         <v>29.40943453687738</v>
       </c>
-      <c r="C8" t="n">
-        <v>29.40943453687738</v>
-      </c>
-      <c r="D8" t="n">
-        <v>29.40943453687738</v>
-      </c>
-      <c r="E8" t="n">
-        <v>29.40943453687738</v>
-      </c>
-      <c r="F8" t="n">
-        <v>22.04189566764422</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7.037082128421059</v>
-      </c>
       <c r="H8" t="n">
-        <v>1.188381232306474</v>
+        <v>14.40462099765423</v>
       </c>
       <c r="I8" t="n">
-        <v>1.188381232306474</v>
+        <v>1.85431773186447</v>
       </c>
       <c r="J8" t="n">
         <v>1.188381232306474</v>
@@ -4808,16 +4808,16 @@
         <v>1.188381232306474</v>
       </c>
       <c r="L8" t="n">
-        <v>15.89459898209909</v>
+        <v>1.188381232306474</v>
       </c>
       <c r="M8" t="n">
-        <v>30.6008167318917</v>
+        <v>11.28146113382036</v>
       </c>
       <c r="N8" t="n">
-        <v>45.30703448168432</v>
+        <v>25.98767888361298</v>
       </c>
       <c r="O8" t="n">
-        <v>55.40011438319821</v>
+        <v>40.69389663340559</v>
       </c>
       <c r="P8" t="n">
         <v>55.40011438319821</v>
@@ -4835,19 +4835,19 @@
         <v>59.4190616153237</v>
       </c>
       <c r="U8" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="V8" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="W8" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="X8" t="n">
-        <v>29.40943453687738</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="Y8" t="n">
-        <v>29.40943453687738</v>
+        <v>59.4190616153237</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.188381232306474</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="C9" t="n">
-        <v>1.188381232306474</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="D9" t="n">
-        <v>1.188381232306474</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="E9" t="n">
-        <v>1.188381232306474</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="F9" t="n">
-        <v>1.188381232306474</v>
+        <v>46.20282184997595</v>
       </c>
       <c r="G9" t="n">
-        <v>1.188381232306474</v>
+        <v>31.19800831075279</v>
       </c>
       <c r="H9" t="n">
-        <v>1.188381232306474</v>
+        <v>16.19319477152963</v>
       </c>
       <c r="I9" t="n">
         <v>1.188381232306474</v>
@@ -4884,22 +4884,22 @@
         <v>8.581692078791374</v>
       </c>
       <c r="K9" t="n">
-        <v>8.581692078791374</v>
+        <v>23.28790982858399</v>
       </c>
       <c r="L9" t="n">
-        <v>15.30040836594585</v>
+        <v>37.99412757837661</v>
       </c>
       <c r="M9" t="n">
-        <v>30.00662611573847</v>
+        <v>44.71284386553108</v>
       </c>
       <c r="N9" t="n">
         <v>44.71284386553108</v>
       </c>
       <c r="O9" t="n">
-        <v>59.4190616153237</v>
+        <v>44.71284386553108</v>
       </c>
       <c r="P9" t="n">
-        <v>59.4190616153237</v>
+        <v>44.71284386553108</v>
       </c>
       <c r="Q9" t="n">
         <v>59.4190616153237</v>
@@ -4911,22 +4911,22 @@
         <v>59.4190616153237</v>
       </c>
       <c r="T9" t="n">
-        <v>44.41424807610054</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="U9" t="n">
-        <v>29.40943453687738</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="V9" t="n">
-        <v>14.40462099765423</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="W9" t="n">
-        <v>1.188381232306474</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="X9" t="n">
-        <v>1.188381232306474</v>
+        <v>59.4190616153237</v>
       </c>
       <c r="Y9" t="n">
-        <v>1.188381232306474</v>
+        <v>59.4190616153237</v>
       </c>
     </row>
     <row r="10">
@@ -5015,40 +5015,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>894.9740177672932</v>
+        <v>1132.159039997687</v>
       </c>
       <c r="C11" t="n">
-        <v>894.9740177672932</v>
+        <v>1132.159039997687</v>
       </c>
       <c r="D11" t="n">
-        <v>894.9740177672932</v>
+        <v>894.9740177672935</v>
       </c>
       <c r="E11" t="n">
-        <v>894.9740177672932</v>
+        <v>894.9740177672935</v>
       </c>
       <c r="F11" t="n">
-        <v>606.5878533894833</v>
+        <v>606.5878533894836</v>
       </c>
       <c r="G11" t="n">
-        <v>311.0913345400737</v>
+        <v>311.0913345400738</v>
       </c>
       <c r="H11" t="n">
-        <v>97.94993618179187</v>
+        <v>97.94993618179191</v>
       </c>
       <c r="I11" t="n">
         <v>33.9885249871817</v>
       </c>
       <c r="J11" t="n">
-        <v>77.16757211763513</v>
+        <v>77.16757211763525</v>
       </c>
       <c r="K11" t="n">
-        <v>264.1583634845057</v>
+        <v>264.158363484506</v>
       </c>
       <c r="L11" t="n">
-        <v>548.1060531550904</v>
+        <v>548.1060531550906</v>
       </c>
       <c r="M11" t="n">
-        <v>879.2648626341726</v>
+        <v>879.2648626341727</v>
       </c>
       <c r="N11" t="n">
         <v>1200.264992874233</v>
@@ -5069,22 +5069,22 @@
         <v>1626.510826231384</v>
       </c>
       <c r="T11" t="n">
-        <v>1526.62190783427</v>
+        <v>1608.560223614593</v>
       </c>
       <c r="U11" t="n">
-        <v>1526.62190783427</v>
+        <v>1608.560223614593</v>
       </c>
       <c r="V11" t="n">
-        <v>1427.115795797205</v>
+        <v>1399.730263234785</v>
       </c>
       <c r="W11" t="n">
-        <v>1427.115795797205</v>
+        <v>1399.730263234785</v>
       </c>
       <c r="X11" t="n">
-        <v>1427.115795797205</v>
+        <v>1399.730263234785</v>
       </c>
       <c r="Y11" t="n">
-        <v>1159.544572560107</v>
+        <v>1132.159039997687</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5094,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>625.6375774318358</v>
+        <v>656.8819726637188</v>
       </c>
       <c r="C12" t="n">
-        <v>452.8844623536529</v>
+        <v>484.128857585536</v>
       </c>
       <c r="D12" t="n">
-        <v>305.2961557125968</v>
+        <v>336.5405509444798</v>
       </c>
       <c r="E12" t="n">
-        <v>270.7084052472788</v>
+        <v>178.9310219473345</v>
       </c>
       <c r="F12" t="n">
-        <v>248.7743937957231</v>
+        <v>48.0820013197846</v>
       </c>
       <c r="G12" t="n">
-        <v>111.6591389312928</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="H12" t="n">
-        <v>111.6591389312928</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="I12" t="n">
         <v>33.9885249871817</v>
@@ -5121,49 +5121,49 @@
         <v>33.9885249871817</v>
       </c>
       <c r="K12" t="n">
-        <v>33.9885249871817</v>
+        <v>217.8495893399182</v>
       </c>
       <c r="L12" t="n">
-        <v>342.0620228372659</v>
+        <v>217.8495893399182</v>
       </c>
       <c r="M12" t="n">
-        <v>754.3694580148931</v>
+        <v>630.1570245175454</v>
       </c>
       <c r="N12" t="n">
-        <v>1174.977454731267</v>
+        <v>1050.765021233919</v>
       </c>
       <c r="O12" t="n">
-        <v>1508.599872005987</v>
+        <v>1384.38743850864</v>
       </c>
       <c r="P12" t="n">
-        <v>1699.426249359085</v>
+        <v>1635.722299964781</v>
       </c>
       <c r="Q12" t="n">
         <v>1699.426249359085</v>
       </c>
       <c r="R12" t="n">
-        <v>1621.278969077253</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="S12" t="n">
-        <v>1578.869124095497</v>
+        <v>1657.016404377329</v>
       </c>
       <c r="T12" t="n">
-        <v>1502.640871062294</v>
+        <v>1580.788151344126</v>
       </c>
       <c r="U12" t="n">
-        <v>1398.75475595163</v>
+        <v>1476.902036233462</v>
       </c>
       <c r="V12" t="n">
-        <v>1287.525291009059</v>
+        <v>1242.650792759063</v>
       </c>
       <c r="W12" t="n">
-        <v>1158.032577874219</v>
+        <v>990.1363010923966</v>
       </c>
       <c r="X12" t="n">
-        <v>998.4085643297458</v>
+        <v>906.6311810298014</v>
       </c>
       <c r="Y12" t="n">
-        <v>792.6801285533962</v>
+        <v>823.9245237852792</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>255.2914762333465</v>
+        <v>267.1862717513783</v>
       </c>
       <c r="C13" t="n">
-        <v>209.2864336225452</v>
+        <v>221.181229140577</v>
       </c>
       <c r="D13" t="n">
-        <v>181.7975389073834</v>
+        <v>193.6923344254152</v>
       </c>
       <c r="E13" t="n">
-        <v>156.3601011026459</v>
+        <v>168.2548966206777</v>
       </c>
       <c r="F13" t="n">
-        <v>143.6412999910862</v>
+        <v>143.6412999910863</v>
       </c>
       <c r="G13" t="n">
-        <v>97.31399342029022</v>
+        <v>97.31399342029025</v>
       </c>
       <c r="H13" t="n">
-        <v>59.17047236169344</v>
+        <v>59.17047236169343</v>
       </c>
       <c r="I13" t="n">
         <v>33.9885249871817</v>
       </c>
       <c r="J13" t="n">
-        <v>82.98970318073839</v>
+        <v>82.98970318073827</v>
       </c>
       <c r="K13" t="n">
-        <v>215.8507506214517</v>
+        <v>215.8507506214516</v>
       </c>
       <c r="L13" t="n">
-        <v>407.951655438521</v>
+        <v>407.9516554385208</v>
       </c>
       <c r="M13" t="n">
-        <v>614.5336666685764</v>
+        <v>614.5336666685762</v>
       </c>
       <c r="N13" t="n">
-        <v>824.2118530859786</v>
+        <v>824.2118530859783</v>
       </c>
       <c r="O13" t="n">
         <v>1011.751367528082</v>
       </c>
       <c r="P13" t="n">
-        <v>1166.403401173005</v>
+        <v>1166.403401173004</v>
       </c>
       <c r="Q13" t="n">
         <v>1227.411878288834</v>
@@ -5224,25 +5224,25 @@
         <v>1185.918610321478</v>
       </c>
       <c r="S13" t="n">
-        <v>1088.456027356051</v>
+        <v>1088.456027356049</v>
       </c>
       <c r="T13" t="n">
-        <v>981.8488457394324</v>
+        <v>993.7436412574646</v>
       </c>
       <c r="U13" t="n">
-        <v>815.9418292763469</v>
+        <v>827.8366247943791</v>
       </c>
       <c r="V13" t="n">
-        <v>683.4723441041953</v>
+        <v>695.3671396222275</v>
       </c>
       <c r="W13" t="n">
-        <v>517.5117217396435</v>
+        <v>529.4065172576754</v>
       </c>
       <c r="X13" t="n">
-        <v>412.1088942792393</v>
+        <v>424.0036897972711</v>
       </c>
       <c r="Y13" t="n">
-        <v>314.1724163789775</v>
+        <v>326.0672118970094</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1020.371347259155</v>
+        <v>1180.269128763745</v>
       </c>
       <c r="C14" t="n">
-        <v>772.7011099536667</v>
+        <v>932.5988914582565</v>
       </c>
       <c r="D14" t="n">
-        <v>535.5160877232736</v>
+        <v>695.4138692278633</v>
       </c>
       <c r="E14" t="n">
-        <v>535.5160877232736</v>
+        <v>431.4477328553598</v>
       </c>
       <c r="F14" t="n">
-        <v>247.1299233454636</v>
+        <v>329.4850438365914</v>
       </c>
       <c r="G14" t="n">
-        <v>247.1299233454636</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="H14" t="n">
         <v>33.9885249871817</v>
@@ -5279,7 +5279,7 @@
         <v>77.16757211763513</v>
       </c>
       <c r="K14" t="n">
-        <v>264.1583634845058</v>
+        <v>264.1583634845057</v>
       </c>
       <c r="L14" t="n">
         <v>548.1060531550904</v>
@@ -5303,25 +5303,25 @@
         <v>1699.426249359085</v>
       </c>
       <c r="S14" t="n">
-        <v>1626.510826231384</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="T14" t="n">
-        <v>1624.725873290689</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="U14" t="n">
-        <v>1493.771862431777</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="V14" t="n">
-        <v>1284.941902051969</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="W14" t="n">
-        <v>1284.941902051969</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="X14" t="n">
-        <v>1284.941902051969</v>
+        <v>1447.840352000842</v>
       </c>
       <c r="Y14" t="n">
-        <v>1284.941902051969</v>
+        <v>1180.269128763745</v>
       </c>
     </row>
     <row r="15">
@@ -5343,7 +5343,7 @@
         <v>178.9310219473346</v>
       </c>
       <c r="F15" t="n">
-        <v>48.08200131978457</v>
+        <v>48.08200131978454</v>
       </c>
       <c r="G15" t="n">
         <v>33.9885249871817</v>
@@ -5355,25 +5355,25 @@
         <v>33.9885249871817</v>
       </c>
       <c r="J15" t="n">
-        <v>67.48771483387486</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="K15" t="n">
-        <v>251.3487791866114</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="L15" t="n">
-        <v>559.4222770366956</v>
+        <v>281.5535387342222</v>
       </c>
       <c r="M15" t="n">
-        <v>971.7297122143228</v>
+        <v>693.8609739118494</v>
       </c>
       <c r="N15" t="n">
-        <v>998.0192041521477</v>
+        <v>1114.468970628223</v>
       </c>
       <c r="O15" t="n">
-        <v>1331.641621426869</v>
+        <v>1448.091387902944</v>
       </c>
       <c r="P15" t="n">
-        <v>1582.97648288301</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="Q15" t="n">
         <v>1699.426249359085</v>
@@ -5391,13 +5391,13 @@
         <v>1476.902036233462</v>
       </c>
       <c r="V15" t="n">
-        <v>1365.672571290891</v>
+        <v>1242.650792759063</v>
       </c>
       <c r="W15" t="n">
         <v>1113.158079624224</v>
       </c>
       <c r="X15" t="n">
-        <v>1029.652959561629</v>
+        <v>906.6311810298015</v>
       </c>
       <c r="Y15" t="n">
         <v>823.9245237852793</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>255.2914762333464</v>
+        <v>267.1862717513779</v>
       </c>
       <c r="C16" t="n">
-        <v>209.2864336225451</v>
+        <v>221.1812291405767</v>
       </c>
       <c r="D16" t="n">
-        <v>193.692334425415</v>
+        <v>193.6923344254148</v>
       </c>
       <c r="E16" t="n">
-        <v>168.2548966206776</v>
+        <v>168.2548966206774</v>
       </c>
       <c r="F16" t="n">
-        <v>143.6412999910862</v>
+        <v>143.641299991086</v>
       </c>
       <c r="G16" t="n">
-        <v>97.31399342029016</v>
+        <v>97.31399342029009</v>
       </c>
       <c r="H16" t="n">
-        <v>59.1704723616934</v>
+        <v>59.17047236169336</v>
       </c>
       <c r="I16" t="n">
         <v>33.9885249871817</v>
       </c>
       <c r="J16" t="n">
-        <v>82.98970318073833</v>
+        <v>82.98970318073837</v>
       </c>
       <c r="K16" t="n">
         <v>215.8507506214517</v>
       </c>
       <c r="L16" t="n">
-        <v>407.951655438521</v>
+        <v>407.9516554385211</v>
       </c>
       <c r="M16" t="n">
-        <v>614.5336666685761</v>
+        <v>614.5336666685764</v>
       </c>
       <c r="N16" t="n">
-        <v>824.2118530859783</v>
+        <v>824.2118530859786</v>
       </c>
       <c r="O16" t="n">
         <v>1011.751367528082</v>
       </c>
       <c r="P16" t="n">
-        <v>1166.403401173004</v>
+        <v>1166.403401173005</v>
       </c>
       <c r="Q16" t="n">
-        <v>1227.411878288834</v>
+        <v>1227.411878288835</v>
       </c>
       <c r="R16" t="n">
         <v>1185.918610321478</v>
       </c>
       <c r="S16" t="n">
-        <v>1088.45602735605</v>
+        <v>1100.350822874082</v>
       </c>
       <c r="T16" t="n">
-        <v>981.8488457394319</v>
+        <v>993.7436412574638</v>
       </c>
       <c r="U16" t="n">
-        <v>815.9418292763467</v>
+        <v>827.8366247943784</v>
       </c>
       <c r="V16" t="n">
-        <v>683.472344104195</v>
+        <v>695.3671396222269</v>
       </c>
       <c r="W16" t="n">
-        <v>517.511721739643</v>
+        <v>529.406517257675</v>
       </c>
       <c r="X16" t="n">
-        <v>412.1088942792392</v>
+        <v>424.0036897972707</v>
       </c>
       <c r="Y16" t="n">
-        <v>314.1724163789775</v>
+        <v>326.067211897009</v>
       </c>
     </row>
     <row r="17">
@@ -5513,16 +5513,16 @@
         <v>33.9885249871817</v>
       </c>
       <c r="J17" t="n">
-        <v>77.16757211763513</v>
+        <v>77.16757211763507</v>
       </c>
       <c r="K17" t="n">
-        <v>264.1583634845058</v>
+        <v>264.1583634845057</v>
       </c>
       <c r="L17" t="n">
-        <v>548.1060531550904</v>
+        <v>548.1060531550903</v>
       </c>
       <c r="M17" t="n">
-        <v>879.2648626341726</v>
+        <v>879.2648626341725</v>
       </c>
       <c r="N17" t="n">
         <v>1200.264992874233</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>406.4547350831958</v>
+        <v>780.1790862767043</v>
       </c>
       <c r="C18" t="n">
-        <v>233.701620005013</v>
+        <v>607.4259711985214</v>
       </c>
       <c r="D18" t="n">
-        <v>233.701620005013</v>
+        <v>459.8376645574653</v>
       </c>
       <c r="E18" t="n">
-        <v>76.09209100786771</v>
+        <v>302.22813556032</v>
       </c>
       <c r="F18" t="n">
-        <v>76.09209100786771</v>
+        <v>157.2723455769368</v>
       </c>
       <c r="G18" t="n">
-        <v>76.09209100786771</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="H18" t="n">
-        <v>76.09209100786771</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="I18" t="n">
         <v>33.9885249871817</v>
       </c>
       <c r="J18" t="n">
-        <v>67.48771483387486</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="K18" t="n">
-        <v>251.3487791866114</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="L18" t="n">
-        <v>559.4222770366956</v>
+        <v>342.0620228372659</v>
       </c>
       <c r="M18" t="n">
-        <v>577.4112074357743</v>
+        <v>754.3694580148931</v>
       </c>
       <c r="N18" t="n">
-        <v>998.0192041521477</v>
+        <v>1174.977454731267</v>
       </c>
       <c r="O18" t="n">
-        <v>1331.641621426869</v>
+        <v>1508.599872005987</v>
       </c>
       <c r="P18" t="n">
-        <v>1582.97648288301</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="Q18" t="n">
         <v>1699.426249359085</v>
       </c>
       <c r="R18" t="n">
-        <v>1699.426249359085</v>
+        <v>1621.278969077253</v>
       </c>
       <c r="S18" t="n">
-        <v>1699.426249359085</v>
+        <v>1621.278969077253</v>
       </c>
       <c r="T18" t="n">
-        <v>1699.426249359085</v>
+        <v>1621.278969077253</v>
       </c>
       <c r="U18" t="n">
-        <v>1472.518355716594</v>
+        <v>1620.306891172432</v>
       </c>
       <c r="V18" t="n">
-        <v>1238.267112242195</v>
+        <v>1611.991463435704</v>
       </c>
       <c r="W18" t="n">
-        <v>985.7526205755283</v>
+        <v>1359.476971769037</v>
       </c>
       <c r="X18" t="n">
-        <v>779.2257219811058</v>
+        <v>1152.950073174614</v>
       </c>
       <c r="Y18" t="n">
-        <v>573.4972862047563</v>
+        <v>947.2216373982648</v>
       </c>
     </row>
     <row r="19">
@@ -5674,7 +5674,7 @@
         <v>33.9885249871817</v>
       </c>
       <c r="K19" t="n">
-        <v>46.27592728885104</v>
+        <v>46.27592728885103</v>
       </c>
       <c r="L19" t="n">
         <v>117.8031869668764</v>
@@ -5683,10 +5683,10 @@
         <v>203.8115530578877</v>
       </c>
       <c r="N19" t="n">
-        <v>292.916094336246</v>
+        <v>292.9160943362459</v>
       </c>
       <c r="O19" t="n">
-        <v>359.8819636393054</v>
+        <v>359.8819636393053</v>
       </c>
       <c r="P19" t="n">
         <v>393.9603521451841</v>
@@ -5701,13 +5701,13 @@
         <v>393.9603521451841</v>
       </c>
       <c r="T19" t="n">
-        <v>390.2672077344089</v>
+        <v>192.0723276240028</v>
       </c>
       <c r="U19" t="n">
-        <v>327.2742284771666</v>
+        <v>129.0793483667605</v>
       </c>
       <c r="V19" t="n">
-        <v>297.718780510858</v>
+        <v>99.52390040045188</v>
       </c>
       <c r="W19" t="n">
         <v>36.47731524174291</v>
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>962.3497792460099</v>
+        <v>962.34977924601</v>
       </c>
       <c r="C20" t="n">
-        <v>817.5935791463644</v>
+        <v>817.5935791463646</v>
       </c>
       <c r="D20" t="n">
-        <v>683.3225941218143</v>
+        <v>683.3225941218144</v>
       </c>
       <c r="E20" t="n">
-        <v>522.2704949551538</v>
+        <v>522.2704949551539</v>
       </c>
       <c r="F20" t="n">
-        <v>336.7983677831869</v>
+        <v>336.7983677831873</v>
       </c>
       <c r="G20" t="n">
         <v>144.2158861396206</v>
@@ -5750,16 +5750,16 @@
         <v>33.9885249871817</v>
       </c>
       <c r="J20" t="n">
-        <v>77.16757211763515</v>
+        <v>77.16757211763525</v>
       </c>
       <c r="K20" t="n">
-        <v>264.1583634845057</v>
+        <v>264.158363484506</v>
       </c>
       <c r="L20" t="n">
-        <v>548.1060531550904</v>
+        <v>548.1060531550905</v>
       </c>
       <c r="M20" t="n">
-        <v>879.2648626341726</v>
+        <v>879.2648626341725</v>
       </c>
       <c r="N20" t="n">
         <v>1200.264992874233</v>
@@ -5786,10 +5786,10 @@
         <v>1671.386275706016</v>
       </c>
       <c r="V20" t="n">
-        <v>1565.47035253205</v>
+        <v>1565.470352532051</v>
       </c>
       <c r="W20" t="n">
-        <v>1437.335343016635</v>
+        <v>1437.335343016636</v>
       </c>
       <c r="X20" t="n">
         <v>1288.663482864236</v>
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>734.5658796310602</v>
+        <v>794.0105205513794</v>
       </c>
       <c r="C21" t="n">
-        <v>561.8127645528773</v>
+        <v>621.2574054731965</v>
       </c>
       <c r="D21" t="n">
-        <v>414.2244579118212</v>
+        <v>473.6690988321403</v>
       </c>
       <c r="E21" t="n">
-        <v>256.6149289146759</v>
+        <v>316.059569834995</v>
       </c>
       <c r="F21" t="n">
-        <v>111.6591389312928</v>
+        <v>171.1037798516119</v>
       </c>
       <c r="G21" t="n">
-        <v>111.6591389312928</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="H21" t="n">
-        <v>111.6591389312928</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="I21" t="n">
         <v>33.9885249871817</v>
@@ -5835,16 +5835,16 @@
         <v>33.9885249871817</v>
       </c>
       <c r="L21" t="n">
-        <v>281.5535387342222</v>
+        <v>342.0620228372659</v>
       </c>
       <c r="M21" t="n">
-        <v>693.8609739118494</v>
+        <v>754.3694580148931</v>
       </c>
       <c r="N21" t="n">
-        <v>1114.468970628223</v>
+        <v>1174.977454731267</v>
       </c>
       <c r="O21" t="n">
-        <v>1448.091387902944</v>
+        <v>1508.599872005987</v>
       </c>
       <c r="P21" t="n">
         <v>1699.426249359085</v>
@@ -5865,16 +5865,16 @@
         <v>1698.454171454264</v>
       </c>
       <c r="V21" t="n">
-        <v>1566.378256790059</v>
+        <v>1625.822897710379</v>
       </c>
       <c r="W21" t="n">
-        <v>1313.863765123393</v>
+        <v>1373.308406043712</v>
       </c>
       <c r="X21" t="n">
-        <v>1107.33686652897</v>
+        <v>1166.781507449289</v>
       </c>
       <c r="Y21" t="n">
-        <v>901.6084307526206</v>
+        <v>961.0530716729398</v>
       </c>
     </row>
     <row r="22">
@@ -5911,7 +5911,7 @@
         <v>33.9885249871817</v>
       </c>
       <c r="K22" t="n">
-        <v>46.27592728885104</v>
+        <v>46.27592728885103</v>
       </c>
       <c r="L22" t="n">
         <v>117.8031869668764</v>
@@ -5920,10 +5920,10 @@
         <v>203.8115530578877</v>
       </c>
       <c r="N22" t="n">
-        <v>292.916094336246</v>
+        <v>292.9160943362459</v>
       </c>
       <c r="O22" t="n">
-        <v>359.8819636393054</v>
+        <v>359.8819636393053</v>
       </c>
       <c r="P22" t="n">
         <v>393.9603521451841</v>
@@ -5941,13 +5941,13 @@
         <v>390.2672077344089</v>
       </c>
       <c r="U22" t="n">
-        <v>129.0793483667605</v>
+        <v>327.2742284771665</v>
       </c>
       <c r="V22" t="n">
-        <v>99.52390040045188</v>
+        <v>297.7187805108579</v>
       </c>
       <c r="W22" t="n">
-        <v>36.47731524174291</v>
+        <v>234.6721953521489</v>
       </c>
       <c r="X22" t="n">
         <v>33.9885249871817</v>
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>962.3497792460108</v>
+        <v>962.3497792460101</v>
       </c>
       <c r="C23" t="n">
-        <v>817.5935791463654</v>
+        <v>817.5935791463647</v>
       </c>
       <c r="D23" t="n">
-        <v>683.3225941218152</v>
+        <v>683.3225941218145</v>
       </c>
       <c r="E23" t="n">
-        <v>522.2704949551547</v>
+        <v>522.270494955154</v>
       </c>
       <c r="F23" t="n">
-        <v>336.7983677831878</v>
+        <v>336.7983677831871</v>
       </c>
       <c r="G23" t="n">
         <v>144.2158861396206</v>
       </c>
       <c r="H23" t="n">
-        <v>33.98852498718172</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="I23" t="n">
-        <v>33.98852498718254</v>
+        <v>33.98852498718164</v>
       </c>
       <c r="J23" t="n">
-        <v>77.16757211763598</v>
+        <v>77.16757211763507</v>
       </c>
       <c r="K23" t="n">
-        <v>264.1583634845066</v>
+        <v>264.1583634845057</v>
       </c>
       <c r="L23" t="n">
-        <v>548.1060531550912</v>
+        <v>548.1060531550903</v>
       </c>
       <c r="M23" t="n">
-        <v>879.2648626341734</v>
+        <v>879.2648626341725</v>
       </c>
       <c r="N23" t="n">
         <v>1200.264992874233</v>
@@ -6005,22 +6005,22 @@
         <v>1457.247962005104</v>
       </c>
       <c r="P23" t="n">
-        <v>1639.63818747918</v>
+        <v>1639.638187479179</v>
       </c>
       <c r="Q23" t="n">
-        <v>1699.426249359086</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="R23" t="n">
-        <v>1699.426249359086</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="S23" t="n">
-        <v>1699.426249359086</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="T23" t="n">
-        <v>1699.426249359086</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="U23" t="n">
-        <v>1671.386275706017</v>
+        <v>1671.386275706016</v>
       </c>
       <c r="V23" t="n">
         <v>1565.470352532051</v>
@@ -6029,10 +6029,10 @@
         <v>1437.335343016636</v>
       </c>
       <c r="X23" t="n">
-        <v>1288.663482864237</v>
+        <v>1288.663482864236</v>
       </c>
       <c r="Y23" t="n">
-        <v>1124.006296832982</v>
+        <v>1124.006296832981</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>656.8952656869491</v>
+        <v>511.939475703566</v>
       </c>
       <c r="C24" t="n">
-        <v>484.1421506087663</v>
+        <v>339.1863606253831</v>
       </c>
       <c r="D24" t="n">
-        <v>336.5538439677101</v>
+        <v>191.598053984327</v>
       </c>
       <c r="E24" t="n">
-        <v>178.9443149705648</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="F24" t="n">
-        <v>33.98852498718172</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="G24" t="n">
-        <v>33.98852498718172</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="H24" t="n">
-        <v>33.98852498718172</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="I24" t="n">
-        <v>33.98852498718172</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="J24" t="n">
-        <v>33.98852498718172</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="K24" t="n">
-        <v>33.98852498718172</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="L24" t="n">
-        <v>342.062022837266</v>
+        <v>281.5535387342222</v>
       </c>
       <c r="M24" t="n">
-        <v>754.3694580148932</v>
+        <v>693.8609739118494</v>
       </c>
       <c r="N24" t="n">
-        <v>1174.977454731267</v>
+        <v>1114.468970628223</v>
       </c>
       <c r="O24" t="n">
-        <v>1508.599872005988</v>
+        <v>1448.091387902944</v>
       </c>
       <c r="P24" t="n">
-        <v>1699.426249359086</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="Q24" t="n">
-        <v>1699.426249359086</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="R24" t="n">
-        <v>1699.426249359086</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="S24" t="n">
-        <v>1699.426249359086</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="T24" t="n">
-        <v>1699.426249359086</v>
+        <v>1699.426249359085</v>
       </c>
       <c r="U24" t="n">
-        <v>1698.454171454265</v>
+        <v>1578.003096336965</v>
       </c>
       <c r="V24" t="n">
-        <v>1488.707642845948</v>
+        <v>1343.751852862565</v>
       </c>
       <c r="W24" t="n">
-        <v>1236.193151179281</v>
+        <v>1091.237361195899</v>
       </c>
       <c r="X24" t="n">
-        <v>1029.666252584859</v>
+        <v>884.710462601476</v>
       </c>
       <c r="Y24" t="n">
-        <v>823.9378168085095</v>
+        <v>678.9820268251265</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>107.0142029236039</v>
+        <v>232.1834050975878</v>
       </c>
       <c r="C25" t="n">
-        <v>107.0142029236039</v>
+        <v>232.1834050975878</v>
       </c>
       <c r="D25" t="n">
-        <v>107.0142029236039</v>
+        <v>232.1834050975878</v>
       </c>
       <c r="E25" t="n">
-        <v>107.0142029236039</v>
+        <v>232.1834050975878</v>
       </c>
       <c r="F25" t="n">
-        <v>107.0142029236039</v>
+        <v>232.1834050975878</v>
       </c>
       <c r="G25" t="n">
-        <v>107.0142029236039</v>
+        <v>195.1538245776058</v>
       </c>
       <c r="H25" t="n">
-        <v>107.0142029236039</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="I25" t="n">
-        <v>107.0142029236039</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="J25" t="n">
-        <v>33.98852498718172</v>
+        <v>33.9885249871817</v>
       </c>
       <c r="K25" t="n">
-        <v>46.27592728885106</v>
+        <v>46.27592728885103</v>
       </c>
       <c r="L25" t="n">
         <v>117.8031869668764</v>
       </c>
       <c r="M25" t="n">
-        <v>203.8115530578878</v>
+        <v>203.8115530578877</v>
       </c>
       <c r="N25" t="n">
-        <v>292.916094336246</v>
+        <v>292.9160943362459</v>
       </c>
       <c r="O25" t="n">
-        <v>359.8819636393055</v>
+        <v>359.8819636393053</v>
       </c>
       <c r="P25" t="n">
-        <v>393.9603521451842</v>
+        <v>393.9603521451841</v>
       </c>
       <c r="Q25" t="n">
-        <v>393.9603521451842</v>
+        <v>393.9603521451841</v>
       </c>
       <c r="R25" t="n">
-        <v>393.9603521451842</v>
+        <v>393.9603521451841</v>
       </c>
       <c r="S25" t="n">
-        <v>393.9603521451842</v>
+        <v>393.9603521451841</v>
       </c>
       <c r="T25" t="n">
-        <v>390.2672077344091</v>
+        <v>390.2672077344089</v>
       </c>
       <c r="U25" t="n">
-        <v>202.1050263031826</v>
+        <v>327.2742284771665</v>
       </c>
       <c r="V25" t="n">
-        <v>172.549578336874</v>
+        <v>297.7187805108579</v>
       </c>
       <c r="W25" t="n">
-        <v>109.5029931781651</v>
+        <v>234.6721953521489</v>
       </c>
       <c r="X25" t="n">
-        <v>107.0142029236039</v>
+        <v>232.1834050975878</v>
       </c>
       <c r="Y25" t="n">
-        <v>107.0142029236039</v>
+        <v>232.1834050975878</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1522.143022320484</v>
       </c>
       <c r="C26" t="n">
-        <v>1295.234520701013</v>
+        <v>1295.234520701012</v>
       </c>
       <c r="D26" t="n">
         <v>1078.811234156636</v>
       </c>
       <c r="E26" t="n">
-        <v>835.6068334701499</v>
+        <v>835.6068334701497</v>
       </c>
       <c r="F26" t="n">
         <v>567.9824047783568</v>
       </c>
       <c r="G26" t="n">
-        <v>293.247621614964</v>
+        <v>293.2476216149639</v>
       </c>
       <c r="H26" t="n">
         <v>100.8679589426991</v>
@@ -6230,7 +6230,7 @@
         <v>569.6825665012484</v>
       </c>
       <c r="L26" t="n">
-        <v>994.5524784567422</v>
+        <v>994.5524784567426</v>
       </c>
       <c r="M26" t="n">
         <v>1466.633510220734</v>
@@ -6242,7 +6242,7 @@
         <v>2326.461054161483</v>
       </c>
       <c r="P26" t="n">
-        <v>2649.773501920467</v>
+        <v>2649.773501920468</v>
       </c>
       <c r="Q26" t="n">
         <v>2850.483786085283</v>
@@ -6251,10 +6251,10 @@
         <v>2883.414171705296</v>
       </c>
       <c r="S26" t="n">
-        <v>2831.260484263612</v>
+        <v>2831.260484263613</v>
       </c>
       <c r="T26" t="n">
-        <v>2752.133301552515</v>
+        <v>2752.133301552516</v>
       </c>
       <c r="U26" t="n">
         <v>2641.94102637962</v>
@@ -6263,7 +6263,7 @@
         <v>2453.872801685829</v>
       </c>
       <c r="W26" t="n">
-        <v>2243.585490650588</v>
+        <v>2243.585490650587</v>
       </c>
       <c r="X26" t="n">
         <v>2012.761328978362</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>782.7622404445726</v>
+        <v>501.863471362298</v>
       </c>
       <c r="C27" t="n">
-        <v>610.0091253663898</v>
+        <v>472.8938705019595</v>
       </c>
       <c r="D27" t="n">
-        <v>462.4208187253337</v>
+        <v>325.3055638609034</v>
       </c>
       <c r="E27" t="n">
-        <v>448.5948039460327</v>
+        <v>167.6960348637581</v>
       </c>
       <c r="F27" t="n">
-        <v>303.6390139626495</v>
+        <v>166.5237590982193</v>
       </c>
       <c r="G27" t="n">
         <v>166.5237590982193</v>
@@ -6330,25 +6330,25 @@
         <v>2135.435233999332</v>
       </c>
       <c r="S27" t="n">
-        <v>1970.003610485748</v>
+        <v>1994.085017203217</v>
       </c>
       <c r="T27" t="n">
-        <v>1788.166726284773</v>
+        <v>1794.834985638187</v>
       </c>
       <c r="U27" t="n">
-        <v>1561.258832642282</v>
+        <v>1567.927091995696</v>
       </c>
       <c r="V27" t="n">
-        <v>1327.007589167883</v>
+        <v>1333.675848521297</v>
       </c>
       <c r="W27" t="n">
-        <v>1074.493097501216</v>
+        <v>1081.16135685463</v>
       </c>
       <c r="X27" t="n">
-        <v>1011.749713124638</v>
+        <v>874.634458260208</v>
       </c>
       <c r="Y27" t="n">
-        <v>949.8047915661331</v>
+        <v>668.9060224838585</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>145.5338803961837</v>
+        <v>145.5338803961836</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2905734713994</v>
+        <v>120.2905734713993</v>
       </c>
       <c r="D28" t="n">
-        <v>113.5634144422545</v>
+        <v>113.5634144422543</v>
       </c>
       <c r="E28" t="n">
-        <v>108.8877123235339</v>
+        <v>108.8877123235338</v>
       </c>
       <c r="F28" t="n">
-        <v>105.0358513799596</v>
+        <v>105.0358513799595</v>
       </c>
       <c r="G28" t="n">
-        <v>79.47028049518048</v>
+        <v>79.47028049518043</v>
       </c>
       <c r="H28" t="n">
-        <v>62.08849512260067</v>
+        <v>62.08849512260065</v>
       </c>
       <c r="I28" t="n">
         <v>57.66828343410592</v>
       </c>
       <c r="J28" t="n">
-        <v>57.66828343410592</v>
+        <v>127.0180387735278</v>
       </c>
       <c r="K28" t="n">
-        <v>210.8779080206844</v>
+        <v>280.2276633601064</v>
       </c>
       <c r="L28" t="n">
-        <v>282.4051676987098</v>
+        <v>432.362219552607</v>
       </c>
       <c r="M28" t="n">
-        <v>509.3357560746304</v>
+        <v>518.3705856436184</v>
       </c>
       <c r="N28" t="n">
-        <v>598.4402973529885</v>
+        <v>607.4751269219765</v>
       </c>
       <c r="O28" t="n">
-        <v>806.3283889409571</v>
+        <v>674.440996225036</v>
       </c>
       <c r="P28" t="n">
-        <v>849.4416070158244</v>
+        <v>849.4416070158239</v>
       </c>
       <c r="Q28" t="n">
-        <v>930.7986612775195</v>
+        <v>930.798661277519</v>
       </c>
       <c r="R28" t="n">
-        <v>910.06712899618</v>
+        <v>910.0671289961796</v>
       </c>
       <c r="S28" t="n">
-        <v>833.3662817167693</v>
+        <v>833.3662817167689</v>
       </c>
       <c r="T28" t="n">
-        <v>747.520835786168</v>
+        <v>747.5208357861677</v>
       </c>
       <c r="U28" t="n">
-        <v>602.3755550090996</v>
+        <v>602.3755550090993</v>
       </c>
       <c r="V28" t="n">
-        <v>490.667805522965</v>
+        <v>490.6678055229647</v>
       </c>
       <c r="W28" t="n">
-        <v>345.4689188444299</v>
+        <v>345.4689188444297</v>
       </c>
       <c r="X28" t="n">
-        <v>260.8278270700426</v>
+        <v>260.8278270700424</v>
       </c>
       <c r="Y28" t="n">
-        <v>183.6530848557978</v>
+        <v>183.6530848557976</v>
       </c>
     </row>
     <row r="29">
@@ -6446,64 +6446,64 @@
         <v>1078.811234156636</v>
       </c>
       <c r="E29" t="n">
-        <v>835.6068334701495</v>
+        <v>835.6068334701492</v>
       </c>
       <c r="F29" t="n">
-        <v>567.9824047783566</v>
+        <v>567.9824047783563</v>
       </c>
       <c r="G29" t="n">
-        <v>293.2476216149638</v>
+        <v>293.2476216149636</v>
       </c>
       <c r="H29" t="n">
-        <v>100.8679589426988</v>
+        <v>100.8679589426991</v>
       </c>
       <c r="I29" t="n">
-        <v>57.66828343410594</v>
+        <v>57.66828343410589</v>
       </c>
       <c r="J29" t="n">
-        <v>241.7695528494692</v>
+        <v>241.7695528494673</v>
       </c>
       <c r="K29" t="n">
-        <v>569.6825665012489</v>
+        <v>569.6825665012473</v>
       </c>
       <c r="L29" t="n">
-        <v>994.5524784567426</v>
+        <v>994.552478456741</v>
       </c>
       <c r="M29" t="n">
-        <v>1466.633510220734</v>
+        <v>1466.633510220733</v>
       </c>
       <c r="N29" t="n">
-        <v>1928.555862745703</v>
+        <v>1928.555862745702</v>
       </c>
       <c r="O29" t="n">
-        <v>2326.461054161483</v>
+        <v>2326.461054161482</v>
       </c>
       <c r="P29" t="n">
-        <v>2649.773501920468</v>
+        <v>2649.773501920466</v>
       </c>
       <c r="Q29" t="n">
-        <v>2850.483786085284</v>
+        <v>2850.483786085281</v>
       </c>
       <c r="R29" t="n">
-        <v>2883.414171705297</v>
+        <v>2883.414171705295</v>
       </c>
       <c r="S29" t="n">
-        <v>2831.260484263613</v>
+        <v>2831.260484263611</v>
       </c>
       <c r="T29" t="n">
-        <v>2752.133301552516</v>
+        <v>2752.133301552514</v>
       </c>
       <c r="U29" t="n">
-        <v>2641.941026379621</v>
+        <v>2641.941026379619</v>
       </c>
       <c r="V29" t="n">
-        <v>2453.872801685829</v>
+        <v>2453.872801685828</v>
       </c>
       <c r="W29" t="n">
-        <v>2243.585490650588</v>
+        <v>2243.585490650587</v>
       </c>
       <c r="X29" t="n">
-        <v>2012.761328978363</v>
+        <v>2012.761328978361</v>
       </c>
       <c r="Y29" t="n">
         <v>1765.951841427281</v>
@@ -6516,31 +6516,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>765.3490930805174</v>
+        <v>680.5750241338733</v>
       </c>
       <c r="C30" t="n">
-        <v>592.5959780023345</v>
+        <v>507.8219090556905</v>
       </c>
       <c r="D30" t="n">
-        <v>445.0076713612784</v>
+        <v>360.2336024146343</v>
       </c>
       <c r="E30" t="n">
-        <v>287.398142364133</v>
+        <v>202.624073417489</v>
       </c>
       <c r="F30" t="n">
-        <v>142.4423523807499</v>
+        <v>57.66828343410589</v>
       </c>
       <c r="G30" t="n">
-        <v>57.66828343410594</v>
+        <v>57.66828343410589</v>
       </c>
       <c r="H30" t="n">
-        <v>57.66828343410594</v>
+        <v>57.66828343410589</v>
       </c>
       <c r="I30" t="n">
-        <v>57.66828343410594</v>
+        <v>57.66828343410589</v>
       </c>
       <c r="J30" t="n">
-        <v>91.1674732807991</v>
+        <v>91.16747328079906</v>
       </c>
       <c r="K30" t="n">
         <v>275.0285376335356</v>
@@ -6564,28 +6564,28 @@
         <v>2135.435233999332</v>
       </c>
       <c r="R30" t="n">
-        <v>2135.435233999332</v>
+        <v>2057.287953717499</v>
       </c>
       <c r="S30" t="n">
-        <v>2113.787124703592</v>
+        <v>2029.013055756949</v>
       </c>
       <c r="T30" t="n">
-        <v>2058.320607356407</v>
+        <v>1973.546538409763</v>
       </c>
       <c r="U30" t="n">
-        <v>1831.412713713916</v>
+        <v>1746.638644767272</v>
       </c>
       <c r="V30" t="n">
-        <v>1597.161470239517</v>
+        <v>1512.387401292873</v>
       </c>
       <c r="W30" t="n">
-        <v>1344.64697857285</v>
+        <v>1259.872909626206</v>
       </c>
       <c r="X30" t="n">
-        <v>1138.120079978427</v>
+        <v>1053.346011031783</v>
       </c>
       <c r="Y30" t="n">
-        <v>932.3916442020778</v>
+        <v>847.6175752554337</v>
       </c>
     </row>
     <row r="31">
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>145.5338803961838</v>
+        <v>145.5338803961837</v>
       </c>
       <c r="C31" t="n">
-        <v>120.2905734713995</v>
+        <v>120.2905734713994</v>
       </c>
       <c r="D31" t="n">
         <v>113.5634144422545</v>
       </c>
       <c r="E31" t="n">
-        <v>108.887712323534</v>
+        <v>108.8877123235339</v>
       </c>
       <c r="F31" t="n">
         <v>105.0358513799596</v>
       </c>
       <c r="G31" t="n">
-        <v>79.4702804951805</v>
+        <v>79.47028049518046</v>
       </c>
       <c r="H31" t="n">
-        <v>62.08849512260069</v>
+        <v>62.08849512260065</v>
       </c>
       <c r="I31" t="n">
-        <v>57.66828343410594</v>
+        <v>57.66828343410589</v>
       </c>
       <c r="J31" t="n">
-        <v>66.70311300309432</v>
+        <v>127.0180387735278</v>
       </c>
       <c r="K31" t="n">
-        <v>78.99051530476365</v>
+        <v>139.3054410751971</v>
       </c>
       <c r="L31" t="n">
-        <v>291.4399972676982</v>
+        <v>351.7549230381316</v>
       </c>
       <c r="M31" t="n">
-        <v>377.4483633587096</v>
+        <v>578.6855114140521</v>
       </c>
       <c r="N31" t="n">
-        <v>607.475126921977</v>
+        <v>667.7900526924103</v>
       </c>
       <c r="O31" t="n">
-        <v>674.4409962250364</v>
+        <v>875.6781442803789</v>
       </c>
       <c r="P31" t="n">
-        <v>849.4416070158244</v>
+        <v>909.7565327862577</v>
       </c>
       <c r="Q31" t="n">
         <v>930.7986612775195</v>
@@ -6664,7 +6664,7 @@
         <v>260.8278270700426</v>
       </c>
       <c r="Y31" t="n">
-        <v>183.6530848557979</v>
+        <v>183.6530848557978</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1493.780323576104</v>
+        <v>1493.780323576103</v>
       </c>
       <c r="C32" t="n">
-        <v>1270.7538673155</v>
+        <v>1270.753867315499</v>
       </c>
       <c r="D32" t="n">
-        <v>1058.212626129992</v>
+        <v>1058.21262612999</v>
       </c>
       <c r="E32" t="n">
-        <v>818.8902708023728</v>
+        <v>818.8902708023716</v>
       </c>
       <c r="F32" t="n">
-        <v>555.1478874694476</v>
+        <v>555.1478874694462</v>
       </c>
       <c r="G32" t="n">
-        <v>284.295149664923</v>
+        <v>284.2951496649218</v>
       </c>
       <c r="H32" t="n">
-        <v>95.79753235152492</v>
+        <v>95.79753235152481</v>
       </c>
       <c r="I32" t="n">
-        <v>56.47990220179946</v>
+        <v>56.47990220179943</v>
       </c>
       <c r="J32" t="n">
-        <v>244.3859642733884</v>
+        <v>244.3859642733885</v>
       </c>
       <c r="K32" t="n">
-        <v>576.1037705813944</v>
+        <v>576.1037705813945</v>
       </c>
       <c r="L32" t="n">
-        <v>1004.778475193114</v>
+        <v>1004.778475193115</v>
       </c>
       <c r="M32" t="n">
-        <v>1480.664299613332</v>
+        <v>1388.190485324277</v>
       </c>
       <c r="N32" t="n">
-        <v>1946.391444794528</v>
+        <v>1853.917630505473</v>
       </c>
       <c r="O32" t="n">
-        <v>2348.101428866534</v>
+        <v>2255.627614577479</v>
       </c>
       <c r="P32" t="n">
-        <v>2582.744854992692</v>
+        <v>2582.74485499269</v>
       </c>
       <c r="Q32" t="n">
-        <v>2787.259931813734</v>
+        <v>2787.259931813732</v>
       </c>
       <c r="R32" t="n">
-        <v>2823.995110089973</v>
+        <v>2823.995110089971</v>
       </c>
       <c r="S32" t="n">
-        <v>2775.723468007157</v>
+        <v>2775.723468007156</v>
       </c>
       <c r="T32" t="n">
-        <v>2700.478330654928</v>
+        <v>2700.478330654926</v>
       </c>
       <c r="U32" t="n">
-        <v>2594.168100840901</v>
+        <v>2594.168100840899</v>
       </c>
       <c r="V32" t="n">
-        <v>2409.981921505978</v>
+        <v>2409.981921505976</v>
       </c>
       <c r="W32" t="n">
-        <v>2203.576655829605</v>
+        <v>2203.576655829603</v>
       </c>
       <c r="X32" t="n">
-        <v>1976.634539516246</v>
+        <v>1976.634539516245</v>
       </c>
       <c r="Y32" t="n">
-        <v>1733.707097324033</v>
+        <v>1733.707097324032</v>
       </c>
     </row>
     <row r="33">
@@ -6753,31 +6753,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>679.3866429015668</v>
+        <v>612.1014668622948</v>
       </c>
       <c r="C33" t="n">
-        <v>506.633527823384</v>
+        <v>439.348351784112</v>
       </c>
       <c r="D33" t="n">
-        <v>359.0452211823279</v>
+        <v>291.7600451430559</v>
       </c>
       <c r="E33" t="n">
-        <v>201.4356921851826</v>
+        <v>134.1505161459106</v>
       </c>
       <c r="F33" t="n">
-        <v>56.47990220179946</v>
+        <v>134.1505161459106</v>
       </c>
       <c r="G33" t="n">
-        <v>56.47990220179946</v>
+        <v>134.1505161459106</v>
       </c>
       <c r="H33" t="n">
-        <v>56.47990220179946</v>
+        <v>134.1505161459106</v>
       </c>
       <c r="I33" t="n">
-        <v>56.47990220179946</v>
+        <v>56.47990220179943</v>
       </c>
       <c r="J33" t="n">
-        <v>89.97909204849263</v>
+        <v>89.97909204849259</v>
       </c>
       <c r="K33" t="n">
         <v>273.8401564012291</v>
@@ -6804,25 +6804,25 @@
         <v>2134.246852767025</v>
       </c>
       <c r="S33" t="n">
-        <v>2116.480788830154</v>
+        <v>2104.323012703214</v>
       </c>
       <c r="T33" t="n">
-        <v>1972.358157177456</v>
+        <v>1905.072981138184</v>
       </c>
       <c r="U33" t="n">
-        <v>1745.450263534965</v>
+        <v>1678.165087495693</v>
       </c>
       <c r="V33" t="n">
-        <v>1511.199020060566</v>
+        <v>1443.913844021294</v>
       </c>
       <c r="W33" t="n">
-        <v>1258.684528393899</v>
+        <v>1191.399352354627</v>
       </c>
       <c r="X33" t="n">
-        <v>1052.157629799477</v>
+        <v>984.8724537602048</v>
       </c>
       <c r="Y33" t="n">
-        <v>846.4291940231273</v>
+        <v>779.1440179838553</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>117.2013660670964</v>
+        <v>117.1717823216667</v>
       </c>
       <c r="C34" t="n">
-        <v>95.84010450117984</v>
+        <v>95.81052075575026</v>
       </c>
       <c r="D34" t="n">
-        <v>92.99499083090264</v>
+        <v>92.96540708547315</v>
       </c>
       <c r="E34" t="n">
-        <v>92.20133407104986</v>
+        <v>92.17175032562047</v>
       </c>
       <c r="F34" t="n">
-        <v>92.20133407104986</v>
+        <v>92.20133407104957</v>
       </c>
       <c r="G34" t="n">
-        <v>70.51780854513852</v>
+        <v>70.51780854513832</v>
       </c>
       <c r="H34" t="n">
-        <v>57.01806853142647</v>
+        <v>57.01806853142634</v>
       </c>
       <c r="I34" t="n">
-        <v>56.47990220179946</v>
+        <v>56.47990220179943</v>
       </c>
       <c r="J34" t="n">
-        <v>56.47990220179946</v>
+        <v>129.6344501974476</v>
       </c>
       <c r="K34" t="n">
-        <v>85.66226903888287</v>
+        <v>286.6488674402525</v>
       </c>
       <c r="L34" t="n">
-        <v>301.9165436580437</v>
+        <v>502.9031420594134</v>
       </c>
       <c r="M34" t="n">
-        <v>532.6519246901905</v>
+        <v>588.9115081504248</v>
       </c>
       <c r="N34" t="n">
-        <v>766.4834809096842</v>
+        <v>678.0160494287829</v>
       </c>
       <c r="O34" t="n">
-        <v>833.4493502127436</v>
+        <v>744.9819187318424</v>
       </c>
       <c r="P34" t="n">
-        <v>867.5277387186225</v>
+        <v>782.3363080552706</v>
       </c>
       <c r="Q34" t="n">
-        <v>867.5277387186225</v>
+        <v>867.4981549731921</v>
       </c>
       <c r="R34" t="n">
-        <v>850.6782517961507</v>
+        <v>850.6486680507204</v>
       </c>
       <c r="S34" t="n">
-        <v>777.8594498756077</v>
+        <v>777.8298661301775</v>
       </c>
       <c r="T34" t="n">
-        <v>695.8960493038742</v>
+        <v>695.8664655584441</v>
       </c>
       <c r="U34" t="n">
-        <v>554.6328138856735</v>
+        <v>554.6032301402435</v>
       </c>
       <c r="V34" t="n">
-        <v>446.8071097584066</v>
+        <v>446.7775260129766</v>
       </c>
       <c r="W34" t="n">
-        <v>305.4902684387393</v>
+        <v>305.4606846933094</v>
       </c>
       <c r="X34" t="n">
-        <v>224.7312220232198</v>
+        <v>224.70163827779</v>
       </c>
       <c r="Y34" t="n">
-        <v>151.4385251678428</v>
+        <v>151.408941422413</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1150.238542576236</v>
+        <v>1150.238542576235</v>
       </c>
       <c r="C35" t="n">
-        <v>975.4837283984484</v>
+        <v>975.4837283984468</v>
       </c>
       <c r="D35" t="n">
-        <v>811.2141292957556</v>
+        <v>811.214129295754</v>
       </c>
       <c r="E35" t="n">
-        <v>620.1634160509526</v>
+        <v>620.1634160509509</v>
       </c>
       <c r="F35" t="n">
-        <v>404.6926748008431</v>
+        <v>404.6926748008414</v>
       </c>
       <c r="G35" t="n">
-        <v>182.1115790791331</v>
+        <v>182.1115790791332</v>
       </c>
       <c r="H35" t="n">
-        <v>41.88560384855162</v>
+        <v>41.88560384855158</v>
       </c>
       <c r="I35" t="n">
-        <v>50.66143094417338</v>
+        <v>50.66143094417328</v>
       </c>
       <c r="J35" t="n">
-        <v>285.87852942113</v>
+        <v>93.84047807462672</v>
       </c>
       <c r="K35" t="n">
-        <v>472.8693207880006</v>
+        <v>280.8312694414973</v>
       </c>
       <c r="L35" t="n">
-        <v>756.8170104585852</v>
+        <v>564.778959112082</v>
       </c>
       <c r="M35" t="n">
-        <v>1087.975819937667</v>
+        <v>895.9377685911642</v>
       </c>
       <c r="N35" t="n">
-        <v>1595.118935942729</v>
+        <v>1319.034669914617</v>
       </c>
       <c r="O35" t="n">
-        <v>1852.101905073599</v>
+        <v>1576.017639045488</v>
       </c>
       <c r="P35" t="n">
-        <v>2034.492130547675</v>
+        <v>1758.407864519563</v>
       </c>
       <c r="Q35" t="n">
-        <v>2094.280192427581</v>
+        <v>2010.233977745972</v>
       </c>
       <c r="R35" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.280192427579</v>
       </c>
       <c r="S35" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.280192427579</v>
       </c>
       <c r="T35" t="n">
-        <v>2067.306697158167</v>
+        <v>2067.306697158165</v>
       </c>
       <c r="U35" t="n">
-        <v>2009.268109426955</v>
+        <v>2009.268109426954</v>
       </c>
       <c r="V35" t="n">
-        <v>1873.353572174847</v>
+        <v>1873.353572174846</v>
       </c>
       <c r="W35" t="n">
-        <v>1715.21994858129</v>
+        <v>1715.219948581288</v>
       </c>
       <c r="X35" t="n">
-        <v>1536.549474350747</v>
+        <v>1536.549474350746</v>
       </c>
       <c r="Y35" t="n">
-        <v>1341.89367424135</v>
+        <v>1341.893674241348</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>797.9958482461893</v>
+        <v>750.3541461102996</v>
       </c>
       <c r="C36" t="n">
-        <v>625.2427331680065</v>
+        <v>577.6010310321167</v>
       </c>
       <c r="D36" t="n">
-        <v>477.6544265269503</v>
+        <v>430.0127243910605</v>
       </c>
       <c r="E36" t="n">
-        <v>320.044897529805</v>
+        <v>272.4031953939152</v>
       </c>
       <c r="F36" t="n">
-        <v>175.0891075464218</v>
+        <v>127.4474054105321</v>
       </c>
       <c r="G36" t="n">
-        <v>41.88560384855162</v>
+        <v>41.88560384855158</v>
       </c>
       <c r="H36" t="n">
-        <v>41.88560384855162</v>
+        <v>41.88560384855158</v>
       </c>
       <c r="I36" t="n">
-        <v>41.88560384855162</v>
+        <v>41.88560384855158</v>
       </c>
       <c r="J36" t="n">
-        <v>50.01243170904829</v>
+        <v>50.01243170904658</v>
       </c>
       <c r="K36" t="n">
-        <v>233.8734960617848</v>
+        <v>233.8734960617831</v>
       </c>
       <c r="L36" t="n">
-        <v>541.9469939118691</v>
+        <v>541.9469939118674</v>
       </c>
       <c r="M36" t="n">
-        <v>954.2544290894963</v>
+        <v>954.2544290894946</v>
       </c>
       <c r="N36" t="n">
-        <v>1392.873147220644</v>
+        <v>1392.873147220642</v>
       </c>
       <c r="O36" t="n">
-        <v>1726.495564495365</v>
+        <v>1726.495564495363</v>
       </c>
       <c r="P36" t="n">
-        <v>1977.830425951506</v>
+        <v>1977.830425951504</v>
       </c>
       <c r="Q36" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.280192427579</v>
       </c>
       <c r="R36" t="n">
-        <v>2094.280192427581</v>
+        <v>2016.132912145747</v>
       </c>
       <c r="S36" t="n">
-        <v>2094.280192427581</v>
+        <v>1850.701288632164</v>
       </c>
       <c r="T36" t="n">
-        <v>2090.967362522078</v>
+        <v>1847.388458726661</v>
       </c>
       <c r="U36" t="n">
-        <v>1864.059468879588</v>
+        <v>1816.417766743698</v>
       </c>
       <c r="V36" t="n">
-        <v>1629.808225405189</v>
+        <v>1582.166523269299</v>
       </c>
       <c r="W36" t="n">
-        <v>1377.293733738522</v>
+        <v>1329.652031602632</v>
       </c>
       <c r="X36" t="n">
-        <v>1170.766835144099</v>
+        <v>1123.12513300821</v>
       </c>
       <c r="Y36" t="n">
-        <v>965.0383993677498</v>
+        <v>917.39669723186</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>41.88560384855162</v>
+        <v>43.25200873914734</v>
       </c>
       <c r="C37" t="n">
-        <v>41.88560384855162</v>
+        <v>43.25200873914734</v>
       </c>
       <c r="D37" t="n">
-        <v>41.88560384855162</v>
+        <v>43.25200873914734</v>
       </c>
       <c r="E37" t="n">
-        <v>41.88560384855162</v>
+        <v>43.25200873914734</v>
       </c>
       <c r="F37" t="n">
-        <v>41.88560384855162</v>
+        <v>43.25200873914734</v>
       </c>
       <c r="G37" t="n">
-        <v>41.88560384855162</v>
+        <v>43.25200873914734</v>
       </c>
       <c r="H37" t="n">
-        <v>41.88560384855162</v>
+        <v>43.25200873914734</v>
       </c>
       <c r="I37" t="n">
-        <v>41.88560384855162</v>
+        <v>43.25200873914734</v>
       </c>
       <c r="J37" t="n">
-        <v>41.88560384855162</v>
+        <v>43.25200873914734</v>
       </c>
       <c r="K37" t="n">
-        <v>54.17300615022096</v>
+        <v>55.53941104081667</v>
       </c>
       <c r="L37" t="n">
-        <v>125.7002658282463</v>
+        <v>127.066670718842</v>
       </c>
       <c r="M37" t="n">
-        <v>211.7086319192577</v>
+        <v>213.0750368098534</v>
       </c>
       <c r="N37" t="n">
-        <v>300.8131731976159</v>
+        <v>302.1795780882116</v>
       </c>
       <c r="O37" t="n">
-        <v>367.7790425006754</v>
+        <v>369.145447391271</v>
       </c>
       <c r="P37" t="n">
-        <v>401.8574310065541</v>
+        <v>403.2238358971497</v>
       </c>
       <c r="Q37" t="n">
-        <v>401.8574310065541</v>
+        <v>403.2238358971497</v>
       </c>
       <c r="R37" t="n">
-        <v>403.2238358971494</v>
+        <v>403.2238358971497</v>
       </c>
       <c r="S37" t="n">
-        <v>378.6766760594222</v>
+        <v>378.6766760594224</v>
       </c>
       <c r="T37" t="n">
-        <v>344.9849175705044</v>
+        <v>344.9849175705046</v>
       </c>
       <c r="U37" t="n">
-        <v>251.9933242351194</v>
+        <v>251.9933242351196</v>
       </c>
       <c r="V37" t="n">
-        <v>192.4392621906683</v>
+        <v>192.4392621906684</v>
       </c>
       <c r="W37" t="n">
-        <v>99.39406295381673</v>
+        <v>99.39406295381681</v>
       </c>
       <c r="X37" t="n">
-        <v>66.90665862111294</v>
+        <v>66.90665862111297</v>
       </c>
       <c r="Y37" t="n">
-        <v>41.88560384855162</v>
+        <v>41.88560384855158</v>
       </c>
     </row>
     <row r="38">
@@ -7151,73 +7151,73 @@
         <v>1150.238542576236</v>
       </c>
       <c r="C38" t="n">
-        <v>975.4837283984482</v>
+        <v>975.4837283984477</v>
       </c>
       <c r="D38" t="n">
-        <v>811.2141292957554</v>
+        <v>811.2141292957549</v>
       </c>
       <c r="E38" t="n">
-        <v>620.1634160509523</v>
+        <v>620.1634160509518</v>
       </c>
       <c r="F38" t="n">
-        <v>404.6926748008427</v>
+        <v>404.6926748008423</v>
       </c>
       <c r="G38" t="n">
         <v>182.1115790791332</v>
       </c>
       <c r="H38" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="I38" t="n">
-        <v>44.76636536267171</v>
+        <v>50.6614309441733</v>
       </c>
       <c r="J38" t="n">
-        <v>87.94541249312516</v>
+        <v>93.84047807462673</v>
       </c>
       <c r="K38" t="n">
-        <v>274.9362038599958</v>
+        <v>280.8312694414973</v>
       </c>
       <c r="L38" t="n">
-        <v>558.8838935305804</v>
+        <v>564.778959112082</v>
       </c>
       <c r="M38" t="n">
-        <v>890.0427030096625</v>
+        <v>895.9377685911642</v>
       </c>
       <c r="N38" t="n">
-        <v>1211.042833249723</v>
+        <v>1216.937898831224</v>
       </c>
       <c r="O38" t="n">
-        <v>1468.025802380593</v>
+        <v>1576.017639045488</v>
       </c>
       <c r="P38" t="n">
-        <v>1842.454079201172</v>
+        <v>1950.445915866067</v>
       </c>
       <c r="Q38" t="n">
-        <v>2094.280192427581</v>
+        <v>2010.233977745973</v>
       </c>
       <c r="R38" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="S38" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="T38" t="n">
-        <v>2067.306697158167</v>
+        <v>2067.306697158166</v>
       </c>
       <c r="U38" t="n">
-        <v>2009.268109426956</v>
+        <v>2009.268109426955</v>
       </c>
       <c r="V38" t="n">
-        <v>1873.353572174848</v>
+        <v>1873.353572174847</v>
       </c>
       <c r="W38" t="n">
-        <v>1715.21994858129</v>
+        <v>1715.219948581289</v>
       </c>
       <c r="X38" t="n">
         <v>1536.549474350747</v>
       </c>
       <c r="Y38" t="n">
-        <v>1341.89367424135</v>
+        <v>1341.893674241349</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>664.7923445483191</v>
+        <v>742.4629584924303</v>
       </c>
       <c r="C39" t="n">
-        <v>492.0392294701362</v>
+        <v>569.7098434142474</v>
       </c>
       <c r="D39" t="n">
-        <v>344.4509228290801</v>
+        <v>422.1215367731912</v>
       </c>
       <c r="E39" t="n">
-        <v>186.8413938319348</v>
+        <v>264.5120077760459</v>
       </c>
       <c r="F39" t="n">
-        <v>41.88560384855162</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="G39" t="n">
-        <v>41.88560384855162</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="H39" t="n">
-        <v>41.88560384855162</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="I39" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="J39" t="n">
-        <v>50.01243170904829</v>
+        <v>50.01243170904749</v>
       </c>
       <c r="K39" t="n">
-        <v>233.8734960617848</v>
+        <v>233.873496061784</v>
       </c>
       <c r="L39" t="n">
-        <v>541.9469939118691</v>
+        <v>541.9469939118683</v>
       </c>
       <c r="M39" t="n">
-        <v>954.2544290894963</v>
+        <v>954.2544290894955</v>
       </c>
       <c r="N39" t="n">
-        <v>1392.873147220644</v>
+        <v>1392.873147220643</v>
       </c>
       <c r="O39" t="n">
-        <v>1726.495564495365</v>
+        <v>1726.495564495364</v>
       </c>
       <c r="P39" t="n">
-        <v>1977.830425951506</v>
+        <v>1977.830425951505</v>
       </c>
       <c r="Q39" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="R39" t="n">
-        <v>2094.280192427581</v>
+        <v>2016.132912145748</v>
       </c>
       <c r="S39" t="n">
-        <v>2094.280192427581</v>
+        <v>2016.132912145748</v>
       </c>
       <c r="T39" t="n">
-        <v>1957.763858824208</v>
+        <v>2012.820082240245</v>
       </c>
       <c r="U39" t="n">
-        <v>1730.855965181717</v>
+        <v>1808.526579125829</v>
       </c>
       <c r="V39" t="n">
-        <v>1496.604721707318</v>
+        <v>1574.275335651429</v>
       </c>
       <c r="W39" t="n">
-        <v>1244.090230040651</v>
+        <v>1321.760843984763</v>
       </c>
       <c r="X39" t="n">
-        <v>1037.563331446229</v>
+        <v>1115.23394539034</v>
       </c>
       <c r="Y39" t="n">
-        <v>831.8348956698795</v>
+        <v>909.5055096139907</v>
       </c>
     </row>
     <row r="40">
@@ -7306,52 +7306,52 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="C40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="D40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="E40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="F40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="G40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="H40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="I40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="J40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="K40" t="n">
-        <v>54.17300615022096</v>
+        <v>54.17300615022094</v>
       </c>
       <c r="L40" t="n">
         <v>125.7002658282463</v>
       </c>
       <c r="M40" t="n">
-        <v>211.7086319192577</v>
+        <v>211.7086319192576</v>
       </c>
       <c r="N40" t="n">
-        <v>300.8131731976159</v>
+        <v>300.8131731976158</v>
       </c>
       <c r="O40" t="n">
-        <v>367.7790425006754</v>
+        <v>367.7790425006752</v>
       </c>
       <c r="P40" t="n">
-        <v>401.8574310065541</v>
+        <v>401.857431006554</v>
       </c>
       <c r="Q40" t="n">
-        <v>401.8574310065541</v>
+        <v>401.857431006554</v>
       </c>
       <c r="R40" t="n">
         <v>403.2238358971498</v>
@@ -7375,7 +7375,7 @@
         <v>66.906658621113</v>
       </c>
       <c r="Y40" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,49 +7400,49 @@
         <v>404.6926748008423</v>
       </c>
       <c r="G41" t="n">
-        <v>182.1115790791332</v>
+        <v>182.1115790791331</v>
       </c>
       <c r="H41" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="I41" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="J41" t="n">
-        <v>85.06465097900507</v>
+        <v>85.06465097900504</v>
       </c>
       <c r="K41" t="n">
-        <v>464.0934936923788</v>
+        <v>272.0554423458756</v>
       </c>
       <c r="L41" t="n">
-        <v>748.0411833629635</v>
+        <v>556.0031320164603</v>
       </c>
       <c r="M41" t="n">
-        <v>1266.37553098879</v>
+        <v>887.1619414955425</v>
       </c>
       <c r="N41" t="n">
-        <v>1587.37566122885</v>
+        <v>1208.162071735602</v>
       </c>
       <c r="O41" t="n">
-        <v>1844.358630359721</v>
+        <v>1465.145040866473</v>
       </c>
       <c r="P41" t="n">
-        <v>2026.748855833796</v>
+        <v>1758.407864519563</v>
       </c>
       <c r="Q41" t="n">
-        <v>2086.536917713702</v>
+        <v>2010.233977745973</v>
       </c>
       <c r="R41" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="S41" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="T41" t="n">
         <v>2067.306697158167</v>
       </c>
       <c r="U41" t="n">
-        <v>2009.268109426955</v>
+        <v>2009.268109426954</v>
       </c>
       <c r="V41" t="n">
         <v>1873.353572174847</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>879.5782133568605</v>
+        <v>538.2800633993892</v>
       </c>
       <c r="C42" t="n">
-        <v>706.8250982786776</v>
+        <v>365.5269483212064</v>
       </c>
       <c r="D42" t="n">
-        <v>559.2367916376214</v>
+        <v>365.5269483212064</v>
       </c>
       <c r="E42" t="n">
-        <v>401.6272626404761</v>
+        <v>365.5269483212064</v>
       </c>
       <c r="F42" t="n">
-        <v>256.671472657093</v>
+        <v>365.5269483212064</v>
       </c>
       <c r="G42" t="n">
-        <v>119.5562177926627</v>
+        <v>228.4116934567761</v>
       </c>
       <c r="H42" t="n">
         <v>119.5562177926627</v>
       </c>
       <c r="I42" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="J42" t="n">
-        <v>75.38479369524478</v>
+        <v>50.01243170904749</v>
       </c>
       <c r="K42" t="n">
-        <v>259.2458580479813</v>
+        <v>233.873496061784</v>
       </c>
       <c r="L42" t="n">
-        <v>567.3193558980656</v>
+        <v>541.9469939118683</v>
       </c>
       <c r="M42" t="n">
-        <v>979.6267910756928</v>
+        <v>954.2544290894955</v>
       </c>
       <c r="N42" t="n">
-        <v>1418.24550920684</v>
+        <v>1392.873147220643</v>
       </c>
       <c r="O42" t="n">
-        <v>1751.867926481561</v>
+        <v>1726.495564495364</v>
       </c>
       <c r="P42" t="n">
-        <v>2003.202787937702</v>
+        <v>1977.830425951505</v>
       </c>
       <c r="Q42" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="R42" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="S42" t="n">
-        <v>2094.280192427581</v>
+        <v>2030.501609240309</v>
       </c>
       <c r="T42" t="n">
-        <v>1895.030160862551</v>
+        <v>1831.251577675278</v>
       </c>
       <c r="U42" t="n">
-        <v>1668.12226722006</v>
+        <v>1604.343684032788</v>
       </c>
       <c r="V42" t="n">
-        <v>1433.871023745661</v>
+        <v>1370.092440558388</v>
       </c>
       <c r="W42" t="n">
-        <v>1181.356532078994</v>
+        <v>1117.577948891722</v>
       </c>
       <c r="X42" t="n">
-        <v>1056.411998595243</v>
+        <v>911.0510502972992</v>
       </c>
       <c r="Y42" t="n">
-        <v>1046.620764478421</v>
+        <v>705.3226145209496</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="C43" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="D43" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="E43" t="n">
-        <v>43.2520087391477</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="F43" t="n">
-        <v>43.2520087391477</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="G43" t="n">
-        <v>43.2520087391477</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="H43" t="n">
-        <v>43.2520087391477</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="I43" t="n">
-        <v>43.2520087391477</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="J43" t="n">
-        <v>43.2520087391477</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="K43" t="n">
-        <v>55.53941104081704</v>
+        <v>54.17300615022094</v>
       </c>
       <c r="L43" t="n">
-        <v>127.0666707188424</v>
+        <v>125.7002658282463</v>
       </c>
       <c r="M43" t="n">
-        <v>213.0750368098538</v>
+        <v>211.7086319192576</v>
       </c>
       <c r="N43" t="n">
-        <v>302.179578088212</v>
+        <v>300.8131731976158</v>
       </c>
       <c r="O43" t="n">
-        <v>369.1454473912714</v>
+        <v>367.7790425006752</v>
       </c>
       <c r="P43" t="n">
-        <v>403.2238358971502</v>
+        <v>401.857431006554</v>
       </c>
       <c r="Q43" t="n">
-        <v>403.2238358971502</v>
+        <v>401.857431006554</v>
       </c>
       <c r="R43" t="n">
-        <v>403.2238358971502</v>
+        <v>403.2238358971496</v>
       </c>
       <c r="S43" t="n">
-        <v>378.6766760594228</v>
+        <v>378.6766760594223</v>
       </c>
       <c r="T43" t="n">
-        <v>344.984917570505</v>
+        <v>344.9849175705045</v>
       </c>
       <c r="U43" t="n">
-        <v>251.9933242351199</v>
+        <v>251.9933242351196</v>
       </c>
       <c r="V43" t="n">
-        <v>192.4392621906686</v>
+        <v>192.4392621906684</v>
       </c>
       <c r="W43" t="n">
-        <v>99.39406295381696</v>
+        <v>99.39406295381679</v>
       </c>
       <c r="X43" t="n">
-        <v>66.90665862111305</v>
+        <v>66.90665862111297</v>
       </c>
       <c r="Y43" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
     </row>
     <row r="44">
@@ -7625,58 +7625,58 @@
         <v>1150.238542576236</v>
       </c>
       <c r="C44" t="n">
-        <v>975.4837283984475</v>
+        <v>975.4837283984481</v>
       </c>
       <c r="D44" t="n">
-        <v>811.2141292957547</v>
+        <v>811.2141292957551</v>
       </c>
       <c r="E44" t="n">
-        <v>620.1634160509516</v>
+        <v>620.1634160509519</v>
       </c>
       <c r="F44" t="n">
-        <v>404.692674800842</v>
+        <v>404.6926748008424</v>
       </c>
       <c r="G44" t="n">
         <v>182.1115790791332</v>
       </c>
       <c r="H44" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="I44" t="n">
-        <v>50.66143094417327</v>
+        <v>50.6614309441733</v>
       </c>
       <c r="J44" t="n">
-        <v>93.84047807462672</v>
+        <v>93.84047807462673</v>
       </c>
       <c r="K44" t="n">
         <v>280.8312694414973</v>
       </c>
       <c r="L44" t="n">
-        <v>564.778959112082</v>
+        <v>750.9219448770824</v>
       </c>
       <c r="M44" t="n">
-        <v>895.9377685911642</v>
+        <v>1082.080754356165</v>
       </c>
       <c r="N44" t="n">
-        <v>1216.937898831224</v>
+        <v>1595.118935942728</v>
       </c>
       <c r="O44" t="n">
-        <v>1576.017639045489</v>
+        <v>1852.101905073599</v>
       </c>
       <c r="P44" t="n">
-        <v>1758.407864519565</v>
+        <v>2034.492130547674</v>
       </c>
       <c r="Q44" t="n">
-        <v>2010.233977745974</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="R44" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="S44" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="T44" t="n">
-        <v>2067.306697158167</v>
+        <v>2067.306697158166</v>
       </c>
       <c r="U44" t="n">
         <v>2009.268109426955</v>
@@ -7685,13 +7685,13 @@
         <v>1873.353572174847</v>
       </c>
       <c r="W44" t="n">
-        <v>1715.219948581289</v>
+        <v>1715.21994858129</v>
       </c>
       <c r="X44" t="n">
         <v>1536.549474350747</v>
       </c>
       <c r="Y44" t="n">
-        <v>1341.893674241349</v>
+        <v>1341.89367424135</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>851.3184341565436</v>
+        <v>742.4629584924303</v>
       </c>
       <c r="C45" t="n">
-        <v>678.5653190783607</v>
+        <v>569.7098434142474</v>
       </c>
       <c r="D45" t="n">
-        <v>530.9770124373046</v>
+        <v>422.1215367731912</v>
       </c>
       <c r="E45" t="n">
-        <v>373.3674834401593</v>
+        <v>264.5120077760459</v>
       </c>
       <c r="F45" t="n">
-        <v>228.4116934567761</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="G45" t="n">
-        <v>228.4116934567761</v>
+        <v>119.5562177926627</v>
       </c>
       <c r="H45" t="n">
         <v>119.5562177926627</v>
       </c>
       <c r="I45" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="J45" t="n">
-        <v>75.38479369524478</v>
+        <v>50.01243170904749</v>
       </c>
       <c r="K45" t="n">
-        <v>259.2458580479813</v>
+        <v>233.873496061784</v>
       </c>
       <c r="L45" t="n">
-        <v>567.3193558980656</v>
+        <v>541.9469939118683</v>
       </c>
       <c r="M45" t="n">
-        <v>979.6267910756928</v>
+        <v>954.2544290894955</v>
       </c>
       <c r="N45" t="n">
-        <v>1418.24550920684</v>
+        <v>1392.873147220643</v>
       </c>
       <c r="O45" t="n">
-        <v>1751.867926481561</v>
+        <v>1726.495564495364</v>
       </c>
       <c r="P45" t="n">
-        <v>1977.830425951506</v>
+        <v>1977.830425951505</v>
       </c>
       <c r="Q45" t="n">
-        <v>2094.280192427581</v>
+        <v>2094.28019242758</v>
       </c>
       <c r="R45" t="n">
-        <v>2016.132912145749</v>
+        <v>2016.132912145748</v>
       </c>
       <c r="S45" t="n">
-        <v>1850.701288632165</v>
+        <v>2016.132912145748</v>
       </c>
       <c r="T45" t="n">
-        <v>1752.415545113377</v>
+        <v>2012.820082240245</v>
       </c>
       <c r="U45" t="n">
-        <v>1721.444853130414</v>
+        <v>1808.526579125829</v>
       </c>
       <c r="V45" t="n">
-        <v>1683.130811315543</v>
+        <v>1574.275335651429</v>
       </c>
       <c r="W45" t="n">
-        <v>1430.616319648876</v>
+        <v>1321.760843984763</v>
       </c>
       <c r="X45" t="n">
-        <v>1224.089421054454</v>
+        <v>1115.23394539034</v>
       </c>
       <c r="Y45" t="n">
-        <v>1018.360985278104</v>
+        <v>909.5055096139907</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="C46" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="D46" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="E46" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="F46" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
       <c r="G46" t="n">
-        <v>41.88560384855162</v>
+        <v>43.2520087391474</v>
       </c>
       <c r="H46" t="n">
-        <v>41.88560384855162</v>
+        <v>43.2520087391474</v>
       </c>
       <c r="I46" t="n">
-        <v>41.88560384855162</v>
+        <v>43.2520087391474</v>
       </c>
       <c r="J46" t="n">
-        <v>41.88560384855162</v>
+        <v>43.2520087391474</v>
       </c>
       <c r="K46" t="n">
-        <v>54.17300615022096</v>
+        <v>55.53941104081673</v>
       </c>
       <c r="L46" t="n">
-        <v>125.7002658282463</v>
+        <v>127.0666707188421</v>
       </c>
       <c r="M46" t="n">
-        <v>211.7086319192577</v>
+        <v>213.0750368098535</v>
       </c>
       <c r="N46" t="n">
-        <v>300.8131731976159</v>
+        <v>302.1795780882117</v>
       </c>
       <c r="O46" t="n">
-        <v>367.7790425006754</v>
+        <v>369.145447391271</v>
       </c>
       <c r="P46" t="n">
-        <v>401.8574310065541</v>
+        <v>403.2238358971498</v>
       </c>
       <c r="Q46" t="n">
-        <v>401.8574310065541</v>
+        <v>403.2238358971498</v>
       </c>
       <c r="R46" t="n">
-        <v>403.2238358971502</v>
+        <v>403.2238358971498</v>
       </c>
       <c r="S46" t="n">
-        <v>378.6766760594228</v>
+        <v>378.6766760594225</v>
       </c>
       <c r="T46" t="n">
-        <v>344.984917570505</v>
+        <v>344.9849175705047</v>
       </c>
       <c r="U46" t="n">
-        <v>251.9933242351199</v>
+        <v>251.9933242351197</v>
       </c>
       <c r="V46" t="n">
-        <v>192.4392621906686</v>
+        <v>192.4392621906684</v>
       </c>
       <c r="W46" t="n">
-        <v>99.39406295381696</v>
+        <v>99.39406295381684</v>
       </c>
       <c r="X46" t="n">
-        <v>66.90665862111305</v>
+        <v>66.906658621113</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.88560384855162</v>
+        <v>41.8856038485516</v>
       </c>
     </row>
   </sheetData>
@@ -8456,19 +8456,19 @@
         <v>214.587604768856</v>
       </c>
       <c r="L8" t="n">
-        <v>244.7270199995685</v>
+        <v>229.8722545957376</v>
       </c>
       <c r="M8" t="n">
-        <v>239.4423428004218</v>
+        <v>234.7826076001403</v>
       </c>
       <c r="N8" t="n">
         <v>238.5325024105071</v>
       </c>
       <c r="O8" t="n">
-        <v>234.5407863396939</v>
+        <v>239.2005215399755</v>
       </c>
       <c r="P8" t="n">
-        <v>225.4521708613878</v>
+        <v>240.3069362652187</v>
       </c>
       <c r="Q8" t="n">
         <v>220.8075902863009</v>
@@ -8532,25 +8532,25 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K9" t="n">
-        <v>134.395403</v>
+        <v>149.2501684038309</v>
       </c>
       <c r="L9" t="n">
-        <v>141.8771023936142</v>
+        <v>149.9452856892083</v>
       </c>
       <c r="M9" t="n">
-        <v>153.4354484777988</v>
+        <v>145.3672651822047</v>
       </c>
       <c r="N9" t="n">
-        <v>142.9129346850809</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O9" t="n">
-        <v>153.8861037371642</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P9" t="n">
         <v>130.625047228972</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>151.3369951377019</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8769,25 +8769,25 @@
         <v>97.29711125231492</v>
       </c>
       <c r="K12" t="n">
-        <v>89.32559967213581</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
-        <v>385.6739591155975</v>
+        <v>74.48860775187607</v>
       </c>
       <c r="M12" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N12" t="n">
-        <v>480.3234214235847</v>
+        <v>480.3234214235848</v>
       </c>
       <c r="O12" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P12" t="n">
-        <v>270.0815984733693</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q12" t="n">
-        <v>100.8543525017728</v>
+        <v>165.2017761323828</v>
       </c>
       <c r="R12" t="n">
         <v>47.34253660377365</v>
@@ -9003,19 +9003,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>131.1346767540252</v>
+        <v>97.29711125231492</v>
       </c>
       <c r="K15" t="n">
-        <v>275.0438464930818</v>
+        <v>89.32559967213581</v>
       </c>
       <c r="L15" t="n">
-        <v>385.6739591155975</v>
+        <v>324.5542782034321</v>
       </c>
       <c r="M15" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N15" t="n">
-        <v>82.02190144525278</v>
+        <v>480.3234214235848</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
@@ -9024,7 +9024,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q15" t="n">
-        <v>218.4803792452831</v>
+        <v>100.8543525017728</v>
       </c>
       <c r="R15" t="n">
         <v>47.34253660377365</v>
@@ -9240,16 +9240,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J18" t="n">
-        <v>131.1346767540252</v>
+        <v>97.29711125231492</v>
       </c>
       <c r="K18" t="n">
-        <v>275.0438464930818</v>
+        <v>89.32559967213581</v>
       </c>
       <c r="L18" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>86.03174632166801</v>
+        <v>484.3332662999999</v>
       </c>
       <c r="N18" t="n">
         <v>480.3234214235847</v>
@@ -9258,10 +9258,10 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P18" t="n">
-        <v>331.2012793855346</v>
+        <v>270.0815984733693</v>
       </c>
       <c r="Q18" t="n">
-        <v>218.4803792452831</v>
+        <v>100.8543525017728</v>
       </c>
       <c r="R18" t="n">
         <v>47.34253660377365</v>
@@ -9477,13 +9477,13 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>97.29711125231491</v>
+        <v>97.29711125231492</v>
       </c>
       <c r="K21" t="n">
         <v>89.32559967213581</v>
       </c>
       <c r="L21" t="n">
-        <v>324.5542782034321</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
         <v>484.3332662999999</v>
@@ -9495,7 +9495,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>270.0815984733693</v>
       </c>
       <c r="Q21" t="n">
         <v>100.8543525017728</v>
@@ -9714,25 +9714,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J24" t="n">
-        <v>97.29711125231491</v>
+        <v>97.29711125231492</v>
       </c>
       <c r="K24" t="n">
         <v>89.32559967213581</v>
       </c>
       <c r="L24" t="n">
-        <v>385.6739591155975</v>
+        <v>324.5542782034321</v>
       </c>
       <c r="M24" t="n">
         <v>484.3332662999999</v>
       </c>
       <c r="N24" t="n">
-        <v>480.3234214235849</v>
+        <v>480.3234214235848</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P24" t="n">
-        <v>270.0815984733698</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q24" t="n">
         <v>100.8543525017728</v>
@@ -10662,7 +10662,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>105.5060282831196</v>
+        <v>105.506028283118</v>
       </c>
       <c r="K36" t="n">
         <v>275.0438464930818</v>
@@ -10899,7 +10899,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>105.5060282831196</v>
+        <v>105.5060282831189</v>
       </c>
       <c r="K39" t="n">
         <v>275.0438464930818</v>
@@ -11136,7 +11136,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J42" t="n">
-        <v>131.1346767540252</v>
+        <v>105.5060282831189</v>
       </c>
       <c r="K42" t="n">
         <v>275.0438464930818</v>
@@ -11157,7 +11157,7 @@
         <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
-        <v>192.8517307743773</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R42" t="n">
         <v>47.34253660377365</v>
@@ -11373,7 +11373,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>105.5060282831189</v>
       </c>
       <c r="K45" t="n">
         <v>275.0438464930818</v>
@@ -11391,7 +11391,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>305.5726309146289</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
         <v>218.4803792452831</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>261.924849244886</v>
       </c>
       <c r="C11" t="n">
         <v>245.1935349324336</v>
       </c>
       <c r="D11" t="n">
-        <v>234.8131720080893</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>261.3264750087784</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>81.11893262251979</v>
       </c>
       <c r="U11" t="n">
         <v>129.6444707503229</v>
       </c>
       <c r="V11" t="n">
-        <v>108.2306098593156</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>228.7385562540455</v>
@@ -23425,7 +23425,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>11.77584756285195</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>11.77584756285294</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>261.9248492448859</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>261.3264750087784</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>184.5592406054511</v>
       </c>
       <c r="G14" t="n">
-        <v>292.5415536609157</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>211.0099843746991</v>
       </c>
       <c r="I14" t="n">
-        <v>63.32179708266408</v>
+        <v>63.32179708266405</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>72.18626889642336</v>
       </c>
       <c r="T14" t="n">
-        <v>97.12292580185527</v>
+        <v>98.89002921314301</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>129.6444707503228</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>206.7416607760102</v>
       </c>
       <c r="W14" t="n">
         <v>228.7385562540455</v>
       </c>
       <c r="X14" t="n">
-        <v>249.0700383846603</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>264.8955110047267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>11.77584756285148</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>11.77584756285071</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26329,10 +26329,10 @@
         <v>264523.8077998545</v>
       </c>
       <c r="H2" t="n">
-        <v>264523.8077998543</v>
+        <v>264523.8077998546</v>
       </c>
       <c r="I2" t="n">
-        <v>264523.8077998544</v>
+        <v>264523.8077998545</v>
       </c>
       <c r="J2" t="n">
         <v>264523.8077998541</v>
@@ -26341,7 +26341,7 @@
         <v>264523.8077998541</v>
       </c>
       <c r="L2" t="n">
-        <v>264523.8077998547</v>
+        <v>264523.8077998544</v>
       </c>
       <c r="M2" t="n">
         <v>264523.8077998543</v>
@@ -26350,10 +26350,10 @@
         <v>264523.8077998543</v>
       </c>
       <c r="O2" t="n">
-        <v>264523.8077998543</v>
+        <v>264523.8077998542</v>
       </c>
       <c r="P2" t="n">
-        <v>264523.8077998544</v>
+        <v>264523.8077998542</v>
       </c>
     </row>
     <row r="3">
@@ -26375,10 +26375,10 @@
         <v>324100.8890198512</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>81507.91746702767</v>
+        <v>81507.91746702764</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>109814.459782093</v>
+        <v>109814.4597820931</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>84582.49739125092</v>
+        <v>84582.49739125097</v>
       </c>
       <c r="M3" t="n">
-        <v>94943.25924792944</v>
+        <v>94943.25924792932</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>32368.62579350498</v>
+        <v>32368.62579350505</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,7 +26427,7 @@
         <v>250638.2412347161</v>
       </c>
       <c r="F4" t="n">
-        <v>250638.2412347162</v>
+        <v>250638.2412347161</v>
       </c>
       <c r="G4" t="n">
         <v>316736.4850033183</v>
@@ -26439,16 +26439,16 @@
         <v>316736.4850033183</v>
       </c>
       <c r="J4" t="n">
-        <v>313100.0500774983</v>
+        <v>313100.0500774984</v>
       </c>
       <c r="K4" t="n">
         <v>313100.0500774984</v>
       </c>
       <c r="L4" t="n">
-        <v>313020.4958223589</v>
+        <v>313020.4958223588</v>
       </c>
       <c r="M4" t="n">
-        <v>312448.4064913336</v>
+        <v>312448.4064913335</v>
       </c>
       <c r="N4" t="n">
         <v>312448.4064913336</v>
@@ -26457,7 +26457,7 @@
         <v>312448.4064913336</v>
       </c>
       <c r="P4" t="n">
-        <v>312448.4064913335</v>
+        <v>312448.4064913336</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>38898.9566514182</v>
       </c>
       <c r="F5" t="n">
-        <v>38898.9566514182</v>
+        <v>38898.95665141821</v>
       </c>
       <c r="G5" t="n">
         <v>47464.31804333764</v>
@@ -26488,28 +26488,28 @@
         <v>47464.31804333764</v>
       </c>
       <c r="I5" t="n">
-        <v>47464.31804333765</v>
+        <v>47464.31804333764</v>
       </c>
       <c r="J5" t="n">
-        <v>58623.53724489448</v>
+        <v>58623.5372448945</v>
       </c>
       <c r="K5" t="n">
-        <v>58623.5372448945</v>
+        <v>58623.53724489447</v>
       </c>
       <c r="L5" t="n">
-        <v>58043.46358290349</v>
+        <v>58043.46358290347</v>
       </c>
       <c r="M5" t="n">
-        <v>50969.36402591276</v>
+        <v>50969.36402591273</v>
       </c>
       <c r="N5" t="n">
-        <v>50969.36402591276</v>
+        <v>50969.36402591274</v>
       </c>
       <c r="O5" t="n">
-        <v>50969.36402591275</v>
+        <v>50969.36402591274</v>
       </c>
       <c r="P5" t="n">
-        <v>50969.36402591275</v>
+        <v>50969.36402591274</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-170467.5445659035</v>
+        <v>-170471.9521430515</v>
       </c>
       <c r="C6" t="n">
-        <v>-170467.5445659035</v>
+        <v>-170471.9521430515</v>
       </c>
       <c r="D6" t="n">
         <v>-173988.850078426</v>
       </c>
       <c r="E6" t="n">
-        <v>-386899.1568128247</v>
+        <v>-387189.8097182607</v>
       </c>
       <c r="F6" t="n">
-        <v>-62798.26779297349</v>
+        <v>-63088.92069840962</v>
       </c>
       <c r="G6" t="n">
-        <v>-181184.9127138292</v>
+        <v>-181184.9127138291</v>
       </c>
       <c r="H6" t="n">
-        <v>-99676.99524680167</v>
+        <v>-99676.99524680132</v>
       </c>
       <c r="I6" t="n">
-        <v>-99676.99524680161</v>
+        <v>-99676.9952468015</v>
       </c>
       <c r="J6" t="n">
-        <v>-217014.2393046316</v>
+        <v>-217014.2393046318</v>
       </c>
       <c r="K6" t="n">
         <v>-107199.7795225388</v>
       </c>
       <c r="L6" t="n">
-        <v>-191122.6489966586</v>
+        <v>-191122.6489966588</v>
       </c>
       <c r="M6" t="n">
-        <v>-193837.2219653216</v>
+        <v>-193837.2219653212</v>
       </c>
       <c r="N6" t="n">
-        <v>-98893.962717392</v>
+        <v>-98893.96271739205</v>
       </c>
       <c r="O6" t="n">
-        <v>-131262.588510897</v>
+        <v>-131262.5885108972</v>
       </c>
       <c r="P6" t="n">
-        <v>-98893.96271739187</v>
+        <v>-98893.9627173921</v>
       </c>
     </row>
   </sheetData>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F2" t="n">
         <v>121.7915607465091</v>
@@ -26713,16 +26713,16 @@
         <v>142.3456790756659</v>
       </c>
       <c r="L2" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="M2" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="N2" t="n">
         <v>193.9778296429324</v>
       </c>
       <c r="O2" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="P2" t="n">
         <v>193.9778296429324</v>
@@ -26808,28 +26808,28 @@
         <v>424.8565623397712</v>
       </c>
       <c r="I4" t="n">
-        <v>424.8565623397715</v>
+        <v>424.8565623397712</v>
       </c>
       <c r="J4" t="n">
-        <v>720.8535429263239</v>
+        <v>720.8535429263241</v>
       </c>
       <c r="K4" t="n">
-        <v>720.8535429263242</v>
+        <v>720.8535429263237</v>
       </c>
       <c r="L4" t="n">
-        <v>705.9987775224932</v>
+        <v>705.9987775224928</v>
       </c>
       <c r="M4" t="n">
-        <v>523.5700481068952</v>
+        <v>523.5700481068948</v>
       </c>
       <c r="N4" t="n">
-        <v>523.5700481068952</v>
+        <v>523.570048106895</v>
       </c>
       <c r="O4" t="n">
-        <v>523.5700481068952</v>
+        <v>523.570048106895</v>
       </c>
       <c r="P4" t="n">
-        <v>523.5700481068952</v>
+        <v>523.570048106895</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="G2" t="n">
         <v>101.8848968337846</v>
@@ -26938,13 +26938,13 @@
         <v>105.7281217390637</v>
       </c>
       <c r="M2" t="n">
-        <v>47.78892566198758</v>
+        <v>47.78892566198743</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>40.46078224188122</v>
+        <v>40.4607822418813</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>295.9969805865525</v>
+        <v>295.9969805865528</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>101.8848968337846</v>
@@ -27862,19 +27862,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>392.4390980767099</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>332.353689501</v>
+        <v>323.2891379843225</v>
       </c>
       <c r="I8" t="n">
-        <v>205.224307868124</v>
+        <v>192.7995076349922</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27907,7 +27907,7 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>236.6229981727135</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
         <v>328.5332215225193</v>
@@ -27916,7 +27916,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X8" t="n">
-        <v>356.0068337273385</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y8" t="n">
         <v>386.6870717512358</v>
@@ -27941,16 +27941,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F9" t="n">
-        <v>143.5062320835493</v>
+        <v>130.422154715855</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0232102050423</v>
+        <v>121.1684448012114</v>
       </c>
       <c r="H9" t="n">
-        <v>110.4625155221328</v>
+        <v>95.60775011830185</v>
       </c>
       <c r="I9" t="n">
-        <v>86.50354346547167</v>
+        <v>71.64877806164074</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27983,16 +27983,16 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T9" t="n">
-        <v>183.5277665044377</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U9" t="n">
-        <v>209.8024116633703</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V9" t="n">
-        <v>217.0539656358242</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W9" t="n">
-        <v>236.9052693823058</v>
+        <v>249.98934675</v>
       </c>
       <c r="X9" t="n">
         <v>204.4616296084783</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="C11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="D11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="E11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="G11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="H11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="I11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>109.0826632978747</v>
+        <v>109.0826632978748</v>
       </c>
       <c r="S11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="T11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="U11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="V11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="W11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="X11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Y11" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
     </row>
     <row r="12">
@@ -28175,19 +28175,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>121.7915607465091</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>121.7915607465091</v>
+        <v>13.96570166227488</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>121.791560746509</v>
       </c>
       <c r="H12" t="n">
         <v>107.7669209074722</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>76.89390780467002</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -28214,28 +28214,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>77.36580747901377</v>
       </c>
       <c r="S12" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="T12" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="U12" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="V12" t="n">
-        <v>121.7915607465091</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>121.7915607465091</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>46.43385619944937</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>121.791560746509</v>
       </c>
     </row>
     <row r="13">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="C13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="D13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="E13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="F13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="G13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="H13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="I13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="J13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="K13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="L13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="M13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="N13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="O13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="P13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Q13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="R13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="S13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="T13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="U13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="V13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="W13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="X13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
       <c r="Y13" t="n">
-        <v>121.7915607465091</v>
+        <v>121.791560746509</v>
       </c>
     </row>
     <row r="14">
@@ -28463,16 +28463,16 @@
         <v>121.7915607465091</v>
       </c>
       <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>121.7915607465091</v>
       </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
       <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
         <v>121.7915607465091</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -28646,22 +28646,22 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.7441023157859</v>
+        <v>13.69311993192835</v>
       </c>
       <c r="H18" t="n">
         <v>107.7669209074722</v>
       </c>
       <c r="I18" t="n">
-        <v>35.21137744419087</v>
+        <v>76.89390780467002</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>77.36580747901375</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>163.7773072784476</v>
@@ -28697,10 +28697,10 @@
         <v>197.2575312493799</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>218.2795178822825</v>
       </c>
       <c r="T19" t="n">
-        <v>223.6764575802937</v>
+        <v>27.46352627099165</v>
       </c>
       <c r="U19" t="n">
         <v>223.6764575802937</v>
@@ -28782,7 +28782,7 @@
         <v>223.6764575802937</v>
       </c>
       <c r="W19" t="n">
-        <v>27.46352627099162</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="X19" t="n">
         <v>223.6764575802937</v>
@@ -28892,13 +28892,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.7441023157859</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>107.7669209074722</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>76.89390780467002</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28937,7 +28937,7 @@
         <v>223.6764575802937</v>
       </c>
       <c r="V21" t="n">
-        <v>101.153575522092</v>
+        <v>160.0037700332081</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>223.6764575802937</v>
       </c>
       <c r="U22" t="n">
-        <v>27.46352627099168</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="V22" t="n">
         <v>223.6764575802937</v>
@@ -29022,7 +29022,7 @@
         <v>223.6764575802937</v>
       </c>
       <c r="X22" t="n">
-        <v>223.6764575802937</v>
+        <v>27.46352627099171</v>
       </c>
       <c r="Y22" t="n">
         <v>218.7486738677682</v>
@@ -29056,7 +29056,7 @@
         <v>223.6764575802937</v>
       </c>
       <c r="I23" t="n">
-        <v>185.113357829174</v>
+        <v>185.1133578291731</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29126,7 +29126,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G24" t="n">
         <v>135.7441023157859</v>
@@ -29171,10 +29171,10 @@
         <v>197.2575312493799</v>
       </c>
       <c r="U24" t="n">
-        <v>223.6764575802937</v>
+        <v>104.4298932141667</v>
       </c>
       <c r="V24" t="n">
-        <v>24.25966771742105</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -29208,16 +29208,16 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6555942515972</v>
+        <v>130.9963095368151</v>
       </c>
       <c r="H25" t="n">
-        <v>159.5536465945199</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>146.7216886472757</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>72.29542115705792</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>223.6764575802937</v>
       </c>
       <c r="U25" t="n">
-        <v>99.75894742804945</v>
+        <v>223.6764575802937</v>
       </c>
       <c r="V25" t="n">
         <v>223.6764575802937</v>
@@ -29317,7 +29317,7 @@
         <v>142.3456790756659</v>
       </c>
       <c r="Q26" t="n">
-        <v>142.3456790756657</v>
+        <v>142.3456790756659</v>
       </c>
       <c r="R26" t="n">
         <v>142.3456790756659</v>
@@ -29354,19 +29354,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>142.3456790756659</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>142.3456790756659</v>
       </c>
-      <c r="F27" t="n">
-        <v>0</v>
-      </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.7441023157859</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -29402,10 +29402,10 @@
         <v>77.36580747901375</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>23.84059265029455</v>
       </c>
       <c r="T27" t="n">
-        <v>17.23901589041472</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -29417,10 +29417,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>142.3456790756659</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>142.3456790756659</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29454,25 +29454,25 @@
         <v>142.3456790756659</v>
       </c>
       <c r="J28" t="n">
-        <v>72.29542115705792</v>
+        <v>142.3456790756659</v>
       </c>
       <c r="K28" t="n">
         <v>142.3456790756659</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>81.4215116307831</v>
       </c>
       <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
         <v>142.3456790756659</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>142.3456790756659</v>
-      </c>
-      <c r="P28" t="n">
-        <v>9.126090473725768</v>
       </c>
       <c r="Q28" t="n">
         <v>142.3456790756659</v>
@@ -29603,7 +29603,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>51.81777405860841</v>
+        <v>135.7441023157859</v>
       </c>
       <c r="H30" t="n">
         <v>107.7669209074722</v>
@@ -29636,10 +29636,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>77.36580747901375</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>142.3456790756659</v>
+        <v>135.7851582975023</v>
       </c>
       <c r="T30" t="n">
         <v>142.3456790756659</v>
@@ -29691,7 +29691,7 @@
         <v>142.3456790756659</v>
       </c>
       <c r="J31" t="n">
-        <v>81.42151163078356</v>
+        <v>142.3456790756659</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -29700,19 +29700,19 @@
         <v>142.3456790756659</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>142.3456790756659</v>
       </c>
       <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>142.3456790756659</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
       <c r="P31" t="n">
-        <v>142.3456790756659</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>142.3456790756659</v>
+        <v>81.42151163078377</v>
       </c>
       <c r="R31" t="n">
         <v>142.3456790756659</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="C32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="D32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="E32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="F32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="G32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="H32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="I32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="J32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="K32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="L32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="M32" t="n">
-        <v>146.1889039809449</v>
+        <v>52.78101075967669</v>
       </c>
       <c r="N32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="O32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="P32" t="n">
-        <v>52.78101075967999</v>
+        <v>146.188903980945</v>
       </c>
       <c r="Q32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="R32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="S32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="T32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="U32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="V32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="W32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="X32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="Y32" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
     </row>
     <row r="33">
@@ -29837,7 +29837,7 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
         <v>135.7441023157859</v>
@@ -29846,7 +29846,7 @@
         <v>107.7669209074722</v>
       </c>
       <c r="I33" t="n">
-        <v>76.89390780467002</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -29876,10 +29876,10 @@
         <v>77.36580747901375</v>
       </c>
       <c r="S33" t="n">
-        <v>146.1889039809449</v>
+        <v>134.1527056152747</v>
       </c>
       <c r="T33" t="n">
-        <v>54.57612591320898</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="C34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="D34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="E34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>146.188903980945</v>
       </c>
       <c r="G34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="H34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="I34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="J34" t="n">
-        <v>72.29542115705792</v>
+        <v>146.188903980945</v>
       </c>
       <c r="K34" t="n">
-        <v>17.0656207428425</v>
+        <v>146.188903980945</v>
       </c>
       <c r="L34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="M34" t="n">
-        <v>146.1889039809449</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>146.1889039809449</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>3.309091734898438</v>
       </c>
       <c r="Q34" t="n">
-        <v>60.16683638708498</v>
+        <v>146.188903980945</v>
       </c>
       <c r="R34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="S34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="T34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="U34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="V34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="W34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="X34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
       <c r="Y34" t="n">
-        <v>146.1889039809449</v>
+        <v>146.188903980945</v>
       </c>
     </row>
     <row r="35">
@@ -29983,31 +29983,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="C35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="D35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="E35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="F35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="G35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="H35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="I35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="J35" t="n">
-        <v>193.9778296429325</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -30019,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>188.0232179444455</v>
+        <v>103.1280515993863</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -30028,31 +30028,31 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="R35" t="n">
-        <v>109.0826632978747</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="S35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="T35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="V35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="W35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="X35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="Y35" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
     </row>
     <row r="36">
@@ -30077,7 +30077,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>3.8726336548944</v>
+        <v>51.03791876942523</v>
       </c>
       <c r="H36" t="n">
         <v>107.7669209074722</v>
@@ -30110,16 +30110,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>77.36580747901375</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>163.7773072784476</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>180.0836914906838</v>
+        <v>181.4638984508815</v>
       </c>
       <c r="C37" t="n">
         <v>167.3365529312023</v>
@@ -30189,28 +30189,28 @@
         <v>60.16683638708498</v>
       </c>
       <c r="R37" t="n">
-        <v>164.2501029943892</v>
+        <v>162.869896034192</v>
       </c>
       <c r="S37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="T37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="V37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="W37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="X37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="Y37" t="n">
-        <v>193.9778296429325</v>
+        <v>193.9778296429324</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>193.9778296429324</v>
       </c>
       <c r="I38" t="n">
-        <v>188.023217944446</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30259,16 +30259,16 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>103.1280515993871</v>
       </c>
       <c r="P38" t="n">
         <v>193.9778296429324</v>
       </c>
       <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
         <v>193.9778296429324</v>
-      </c>
-      <c r="R38" t="n">
-        <v>109.0826632978747</v>
       </c>
       <c r="S38" t="n">
         <v>193.9778296429324</v>
@@ -30320,7 +30320,7 @@
         <v>107.7669209074722</v>
       </c>
       <c r="I39" t="n">
-        <v>76.89390780467002</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -30347,16 +30347,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>77.36580747901375</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>163.7773072784476</v>
       </c>
       <c r="T39" t="n">
-        <v>62.10636098204097</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>22.38824662279328</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>60.16683638708498</v>
       </c>
       <c r="R40" t="n">
-        <v>164.2501029943896</v>
+        <v>164.2501029943898</v>
       </c>
       <c r="S40" t="n">
         <v>193.9778296429324</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="C41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="D41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="E41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="F41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="G41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="H41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="I41" t="n">
         <v>185.1133578291731</v>
@@ -30484,13 +30484,13 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>193.9778296429324</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>189.0662001482264</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -30499,34 +30499,34 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>111.9925234131465</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="R41" t="n">
-        <v>116.9041529078532</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="S41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="T41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="U41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="V41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="W41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="X41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="Y41" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
     </row>
     <row r="42">
@@ -30542,19 +30542,19 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>107.7669209074722</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -30587,7 +30587,7 @@
         <v>77.36580747901375</v>
       </c>
       <c r="S42" t="n">
-        <v>163.7773072784476</v>
+        <v>100.6365099230489</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -30602,10 +30602,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>80.76654145956455</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>193.9778296429324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30624,7 +30624,7 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E43" t="n">
-        <v>148.3548311333973</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F43" t="n">
         <v>146.1590214098045</v>
@@ -30663,28 +30663,28 @@
         <v>60.16683638708498</v>
       </c>
       <c r="R43" t="n">
-        <v>162.869896034192</v>
+        <v>164.2501029943896</v>
       </c>
       <c r="S43" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="T43" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="U43" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="V43" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="W43" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="X43" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
       <c r="Y43" t="n">
-        <v>193.9778296429324</v>
+        <v>193.9778296429325</v>
       </c>
     </row>
     <row r="44">
@@ -30724,25 +30724,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>188.0232179444449</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="O44" t="n">
-        <v>103.1280515993882</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>193.9778296429324</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>193.9778296429324</v>
+        <v>109.0826632978747</v>
       </c>
       <c r="S44" t="n">
         <v>193.9778296429324</v>
@@ -30791,7 +30791,7 @@
         <v>135.7441023157859</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>107.7669209074722</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -30824,16 +30824,16 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>163.7773072784476</v>
       </c>
       <c r="T45" t="n">
-        <v>99.95464516577984</v>
+        <v>193.9778296429324</v>
       </c>
       <c r="U45" t="n">
-        <v>193.9778296429324</v>
+        <v>22.38824662279328</v>
       </c>
       <c r="V45" t="n">
-        <v>193.9778296429324</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -30867,7 +30867,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.6555942515972</v>
+        <v>169.0358012117949</v>
       </c>
       <c r="H46" t="n">
         <v>159.5536465945199</v>
@@ -30900,7 +30900,7 @@
         <v>60.16683638708498</v>
       </c>
       <c r="R46" t="n">
-        <v>164.25010299439</v>
+        <v>162.869896034192</v>
       </c>
       <c r="S46" t="n">
         <v>193.9778296429324</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5216509964062211</v>
+        <v>0.5216509964062209</v>
       </c>
       <c r="H11" t="n">
-        <v>5.342358266945214</v>
+        <v>5.342358266945212</v>
       </c>
       <c r="I11" t="n">
-        <v>20.11095003895086</v>
+        <v>20.11095003895085</v>
       </c>
       <c r="J11" t="n">
-        <v>44.27447625623255</v>
+        <v>44.27447625623254</v>
       </c>
       <c r="K11" t="n">
-        <v>66.35596293410791</v>
+        <v>66.35596293410788</v>
       </c>
       <c r="L11" t="n">
-        <v>82.32043961537482</v>
+        <v>82.32043961537478</v>
       </c>
       <c r="M11" t="n">
-        <v>91.59735052271395</v>
+        <v>91.59735052271391</v>
       </c>
       <c r="N11" t="n">
-        <v>93.07949141625313</v>
+        <v>93.07949141625309</v>
       </c>
       <c r="O11" t="n">
-        <v>87.89232432073877</v>
+        <v>87.89232432073872</v>
       </c>
       <c r="P11" t="n">
-        <v>75.01406534696017</v>
+        <v>75.01406534696014</v>
       </c>
       <c r="Q11" t="n">
-        <v>56.33243903816236</v>
+        <v>56.33243903816233</v>
       </c>
       <c r="R11" t="n">
-        <v>32.76815940300232</v>
+        <v>32.76815940300231</v>
       </c>
       <c r="S11" t="n">
-        <v>11.88712208060678</v>
+        <v>11.88712208060677</v>
       </c>
       <c r="T11" t="n">
-        <v>2.283527236768234</v>
+        <v>2.283527236768233</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04173207971249768</v>
+        <v>0.04173207971249767</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2791078892564043</v>
+        <v>0.2791078892564042</v>
       </c>
       <c r="H12" t="n">
-        <v>2.695594614660537</v>
+        <v>2.695594614660536</v>
       </c>
       <c r="I12" t="n">
-        <v>9.609635660801642</v>
+        <v>9.609635660801636</v>
       </c>
       <c r="J12" t="n">
-        <v>26.36957474768511</v>
+        <v>26.3695747476851</v>
       </c>
       <c r="K12" t="n">
-        <v>45.0698033278642</v>
+        <v>45.06980332786419</v>
       </c>
       <c r="L12" t="n">
-        <v>60.6019125335013</v>
+        <v>60.60191253350128</v>
       </c>
       <c r="M12" t="n">
-        <v>70.71957351904594</v>
+        <v>70.71957351904591</v>
       </c>
       <c r="N12" t="n">
-        <v>72.59131019743648</v>
+        <v>72.59131019743646</v>
       </c>
       <c r="O12" t="n">
-        <v>66.4068669670709</v>
+        <v>66.40686696707087</v>
       </c>
       <c r="P12" t="n">
-        <v>53.29736527388304</v>
+        <v>53.29736527388301</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.62787723209821</v>
+        <v>35.62787723209819</v>
       </c>
       <c r="R12" t="n">
-        <v>17.32917228207746</v>
+        <v>17.32917228207745</v>
       </c>
       <c r="S12" t="n">
-        <v>5.184306627196805</v>
+        <v>5.184306627196802</v>
       </c>
       <c r="T12" t="n">
         <v>1.125000658888752</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01836236113528977</v>
+        <v>0.01836236113528976</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2339946785109055</v>
+        <v>0.2339946785109054</v>
       </c>
       <c r="H13" t="n">
-        <v>2.080425414396962</v>
+        <v>2.080425414396961</v>
       </c>
       <c r="I13" t="n">
-        <v>7.03685815012796</v>
+        <v>7.036858150127958</v>
       </c>
       <c r="J13" t="n">
-        <v>16.54342377072102</v>
+        <v>16.54342377072101</v>
       </c>
       <c r="K13" t="n">
-        <v>27.18592719426702</v>
+        <v>27.18592719426701</v>
       </c>
       <c r="L13" t="n">
-        <v>34.78862702152136</v>
+        <v>34.78862702152134</v>
       </c>
       <c r="M13" t="n">
-        <v>36.67972946875948</v>
+        <v>36.67972946875947</v>
       </c>
       <c r="N13" t="n">
-        <v>35.80756748521887</v>
+        <v>35.80756748521885</v>
       </c>
       <c r="O13" t="n">
-        <v>33.07408419534146</v>
+        <v>33.07408419534144</v>
       </c>
       <c r="P13" t="n">
-        <v>28.30059275371896</v>
+        <v>28.30059275371895</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.59386348876319</v>
+        <v>19.59386348876318</v>
       </c>
       <c r="R13" t="n">
-        <v>10.52125163559035</v>
+        <v>10.52125163559034</v>
       </c>
       <c r="S13" t="n">
-        <v>4.077889079140052</v>
+        <v>4.07788907914005</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9997954445465961</v>
+        <v>0.9997954445465956</v>
       </c>
       <c r="U13" t="n">
         <v>0.01276334610059486</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H17" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I17" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J17" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K17" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L17" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M17" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N17" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O17" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P17" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q17" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R17" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S17" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T17" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,43 +32303,43 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H18" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I18" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J18" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K18" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L18" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M18" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N18" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O18" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P18" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q18" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R18" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S18" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T18" t="n">
         <v>1.125000658888752</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H19" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I19" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J19" t="n">
         <v>16.54342377072102</v>
@@ -32400,16 +32400,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M19" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N19" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O19" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P19" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q19" t="n">
         <v>19.59386348876319</v>
@@ -32418,10 +32418,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S19" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U19" t="n">
         <v>0.01276334610059486</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H20" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I20" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J20" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K20" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L20" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M20" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N20" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O20" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P20" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q20" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R20" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S20" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T20" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,43 +32540,43 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H21" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I21" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J21" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K21" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L21" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M21" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N21" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O21" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P21" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q21" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R21" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S21" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T21" t="n">
         <v>1.125000658888752</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H22" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I22" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J22" t="n">
         <v>16.54342377072102</v>
@@ -32637,16 +32637,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M22" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N22" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O22" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P22" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q22" t="n">
         <v>19.59386348876319</v>
@@ -32655,10 +32655,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S22" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U22" t="n">
         <v>0.01276334610059486</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H23" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I23" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J23" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K23" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L23" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M23" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N23" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O23" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P23" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q23" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R23" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S23" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T23" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,43 +32777,43 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H24" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I24" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J24" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K24" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L24" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M24" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N24" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O24" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P24" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R24" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S24" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T24" t="n">
         <v>1.125000658888752</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H25" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I25" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J25" t="n">
         <v>16.54342377072102</v>
@@ -32874,16 +32874,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M25" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N25" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O25" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P25" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q25" t="n">
         <v>19.59386348876319</v>
@@ -32892,10 +32892,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S25" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U25" t="n">
         <v>0.01276334610059486</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H26" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I26" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J26" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K26" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L26" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M26" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N26" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O26" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P26" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q26" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R26" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S26" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T26" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,43 +33014,43 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H27" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I27" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J27" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K27" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L27" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M27" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N27" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O27" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P27" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q27" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R27" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S27" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T27" t="n">
         <v>1.125000658888752</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H28" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I28" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J28" t="n">
         <v>16.54342377072102</v>
@@ -33111,16 +33111,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M28" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N28" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O28" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P28" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q28" t="n">
         <v>19.59386348876319</v>
@@ -33129,10 +33129,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S28" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U28" t="n">
         <v>0.01276334610059486</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H29" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I29" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J29" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K29" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L29" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M29" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N29" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O29" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P29" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R29" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S29" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T29" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,43 +33251,43 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H30" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I30" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J30" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K30" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L30" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M30" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N30" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O30" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P30" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R30" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S30" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T30" t="n">
         <v>1.125000658888752</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H31" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I31" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J31" t="n">
         <v>16.54342377072102</v>
@@ -33348,16 +33348,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M31" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N31" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O31" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P31" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q31" t="n">
         <v>19.59386348876319</v>
@@ -33366,10 +33366,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S31" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U31" t="n">
         <v>0.01276334610059486</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H32" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I32" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J32" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K32" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L32" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M32" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N32" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O32" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P32" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q32" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R32" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S32" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T32" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,43 +33488,43 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H33" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I33" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J33" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K33" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L33" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M33" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N33" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O33" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P33" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q33" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R33" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S33" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T33" t="n">
         <v>1.125000658888752</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H34" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I34" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J34" t="n">
         <v>16.54342377072102</v>
@@ -33585,16 +33585,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M34" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N34" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O34" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P34" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q34" t="n">
         <v>19.59386348876319</v>
@@ -33603,10 +33603,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S34" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U34" t="n">
         <v>0.01276334610059486</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H35" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I35" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J35" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K35" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L35" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M35" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N35" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O35" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P35" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q35" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R35" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S35" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T35" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,43 +33725,43 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H36" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I36" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J36" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K36" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L36" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M36" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N36" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O36" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P36" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q36" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R36" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S36" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T36" t="n">
         <v>1.125000658888752</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H37" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I37" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J37" t="n">
         <v>16.54342377072102</v>
@@ -33822,16 +33822,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M37" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N37" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O37" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P37" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q37" t="n">
         <v>19.59386348876319</v>
@@ -33840,10 +33840,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S37" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U37" t="n">
         <v>0.01276334610059486</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H38" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I38" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J38" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K38" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L38" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M38" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N38" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O38" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P38" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q38" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R38" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S38" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T38" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33962,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H39" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I39" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J39" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K39" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L39" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M39" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N39" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O39" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P39" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q39" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R39" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S39" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T39" t="n">
         <v>1.125000658888752</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H40" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I40" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J40" t="n">
         <v>16.54342377072102</v>
@@ -34059,16 +34059,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M40" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N40" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O40" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P40" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q40" t="n">
         <v>19.59386348876319</v>
@@ -34077,10 +34077,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S40" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U40" t="n">
         <v>0.01276334610059486</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H41" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I41" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J41" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K41" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L41" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M41" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N41" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O41" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P41" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q41" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R41" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S41" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T41" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34199,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H42" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I42" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J42" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K42" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L42" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M42" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N42" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O42" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P42" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R42" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S42" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T42" t="n">
         <v>1.125000658888752</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H43" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I43" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J43" t="n">
         <v>16.54342377072102</v>
@@ -34296,16 +34296,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M43" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N43" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O43" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P43" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q43" t="n">
         <v>19.59386348876319</v>
@@ -34314,10 +34314,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S43" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U43" t="n">
         <v>0.01276334610059486</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5216509964062213</v>
+        <v>0.5216509964062211</v>
       </c>
       <c r="H44" t="n">
-        <v>5.342358266945215</v>
+        <v>5.342358266945214</v>
       </c>
       <c r="I44" t="n">
         <v>20.11095003895086</v>
       </c>
       <c r="J44" t="n">
-        <v>44.27447625623257</v>
+        <v>44.27447625623255</v>
       </c>
       <c r="K44" t="n">
-        <v>66.35596293410792</v>
+        <v>66.35596293410791</v>
       </c>
       <c r="L44" t="n">
-        <v>82.32043961537484</v>
+        <v>82.32043961537482</v>
       </c>
       <c r="M44" t="n">
-        <v>91.59735052271397</v>
+        <v>91.59735052271395</v>
       </c>
       <c r="N44" t="n">
-        <v>93.07949141625316</v>
+        <v>93.07949141625313</v>
       </c>
       <c r="O44" t="n">
-        <v>87.89232432073878</v>
+        <v>87.89232432073877</v>
       </c>
       <c r="P44" t="n">
-        <v>75.01406534696018</v>
+        <v>75.01406534696017</v>
       </c>
       <c r="Q44" t="n">
-        <v>56.33243903816237</v>
+        <v>56.33243903816236</v>
       </c>
       <c r="R44" t="n">
-        <v>32.76815940300233</v>
+        <v>32.76815940300232</v>
       </c>
       <c r="S44" t="n">
         <v>11.88712208060678</v>
       </c>
       <c r="T44" t="n">
-        <v>2.283527236768235</v>
+        <v>2.283527236768234</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0417320797124977</v>
+        <v>0.04173207971249768</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,43 +34436,43 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2791078892564044</v>
+        <v>0.2791078892564043</v>
       </c>
       <c r="H45" t="n">
         <v>2.695594614660537</v>
       </c>
       <c r="I45" t="n">
-        <v>9.609635660801644</v>
+        <v>9.609635660801642</v>
       </c>
       <c r="J45" t="n">
-        <v>26.36957474768512</v>
+        <v>26.36957474768511</v>
       </c>
       <c r="K45" t="n">
-        <v>45.06980332786421</v>
+        <v>45.0698033278642</v>
       </c>
       <c r="L45" t="n">
-        <v>60.60191253350131</v>
+        <v>60.6019125335013</v>
       </c>
       <c r="M45" t="n">
-        <v>70.71957351904595</v>
+        <v>70.71957351904594</v>
       </c>
       <c r="N45" t="n">
-        <v>72.59131019743651</v>
+        <v>72.59131019743648</v>
       </c>
       <c r="O45" t="n">
-        <v>66.40686696707091</v>
+        <v>66.4068669670709</v>
       </c>
       <c r="P45" t="n">
-        <v>53.29736527388305</v>
+        <v>53.29736527388304</v>
       </c>
       <c r="Q45" t="n">
-        <v>35.62787723209822</v>
+        <v>35.62787723209821</v>
       </c>
       <c r="R45" t="n">
-        <v>17.32917228207747</v>
+        <v>17.32917228207746</v>
       </c>
       <c r="S45" t="n">
-        <v>5.184306627196806</v>
+        <v>5.184306627196805</v>
       </c>
       <c r="T45" t="n">
         <v>1.125000658888752</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2339946785109056</v>
+        <v>0.2339946785109055</v>
       </c>
       <c r="H46" t="n">
         <v>2.080425414396962</v>
       </c>
       <c r="I46" t="n">
-        <v>7.036858150127962</v>
+        <v>7.03685815012796</v>
       </c>
       <c r="J46" t="n">
         <v>16.54342377072102</v>
@@ -34533,16 +34533,16 @@
         <v>34.78862702152136</v>
       </c>
       <c r="M46" t="n">
-        <v>36.67972946875949</v>
+        <v>36.67972946875948</v>
       </c>
       <c r="N46" t="n">
-        <v>35.80756748521888</v>
+        <v>35.80756748521887</v>
       </c>
       <c r="O46" t="n">
         <v>33.07408419534146</v>
       </c>
       <c r="P46" t="n">
-        <v>28.30059275371897</v>
+        <v>28.30059275371896</v>
       </c>
       <c r="Q46" t="n">
         <v>19.59386348876319</v>
@@ -34551,10 +34551,10 @@
         <v>10.52125163559035</v>
       </c>
       <c r="S46" t="n">
-        <v>4.077889079140053</v>
+        <v>4.077889079140052</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9997954445465962</v>
+        <v>0.9997954445465961</v>
       </c>
       <c r="U46" t="n">
         <v>0.01276334610059486</v>
@@ -35176,19 +35176,19 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>14.85476540383092</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14.85476540383092</v>
+        <v>10.19503020354938</v>
       </c>
       <c r="N8" t="n">
         <v>14.85476540383092</v>
       </c>
       <c r="O8" t="n">
-        <v>10.19503020354938</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="Q8" t="n">
         <v>4.059542658712616</v>
@@ -35252,25 +35252,25 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="L9" t="n">
-        <v>6.786582108236849</v>
+        <v>14.85476540383092</v>
       </c>
       <c r="M9" t="n">
+        <v>6.786582108236847</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>14.85476540383092</v>
-      </c>
-      <c r="N9" t="n">
-        <v>14.85476540383092</v>
-      </c>
-      <c r="O9" t="n">
-        <v>14.85476540383092</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>43.61519912167014</v>
+        <v>43.61519912167012</v>
       </c>
       <c r="K11" t="n">
         <v>188.8795872392632</v>
       </c>
       <c r="L11" t="n">
-        <v>286.8158481521057</v>
+        <v>286.8158481521056</v>
       </c>
       <c r="M11" t="n">
-        <v>334.5038479586689</v>
+        <v>334.5038479586688</v>
       </c>
       <c r="N11" t="n">
-        <v>324.2425557980405</v>
+        <v>324.2425557980404</v>
       </c>
       <c r="O11" t="n">
-        <v>259.5787566978494</v>
+        <v>259.5787566978493</v>
       </c>
       <c r="P11" t="n">
         <v>184.2325509839143</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.39198169687497</v>
+        <v>60.39198169687495</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,10 +35489,10 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>185.718246820946</v>
       </c>
       <c r="L12" t="n">
-        <v>311.1853513637215</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>416.472156745078</v>
@@ -35504,10 +35504,10 @@
         <v>336.9923406815362</v>
       </c>
       <c r="P12" t="n">
-        <v>192.7539165182803</v>
+        <v>253.8735974304456</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>64.34742363061</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>49.49613958945116</v>
+        <v>49.49613958945113</v>
       </c>
       <c r="K13" t="n">
         <v>134.2030782229427</v>
@@ -35583,10 +35583,10 @@
         <v>189.4338529718216</v>
       </c>
       <c r="P13" t="n">
-        <v>156.2141753989119</v>
+        <v>156.2141753989118</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.62472435942409</v>
+        <v>61.62472435942405</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>33.83756550171027</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>185.718246820946</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>311.1853513637215</v>
+        <v>250.0656704515561</v>
       </c>
       <c r="M15" t="n">
         <v>416.472156745078</v>
       </c>
       <c r="N15" t="n">
-        <v>26.55504236143928</v>
+        <v>424.8565623397712</v>
       </c>
       <c r="O15" t="n">
         <v>336.9923406815362</v>
@@ -35744,7 +35744,7 @@
         <v>253.8735974304457</v>
       </c>
       <c r="Q15" t="n">
-        <v>117.6260267435103</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>49.49613958945116</v>
+        <v>49.49613958945119</v>
       </c>
       <c r="K16" t="n">
-        <v>134.2030782229427</v>
+        <v>134.2030782229428</v>
       </c>
       <c r="L16" t="n">
-        <v>194.0413179970397</v>
+        <v>194.0413179970398</v>
       </c>
       <c r="M16" t="n">
-        <v>208.6686982121771</v>
+        <v>208.6686982121772</v>
       </c>
       <c r="N16" t="n">
         <v>211.7961478963659</v>
@@ -35823,7 +35823,7 @@
         <v>156.2141753989119</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.62472435942409</v>
+        <v>61.62472435942412</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.61519912167015</v>
+        <v>43.61519912167008</v>
       </c>
       <c r="K17" t="n">
         <v>188.8795872392632</v>
@@ -35902,7 +35902,7 @@
         <v>184.2325509839143</v>
       </c>
       <c r="Q17" t="n">
-        <v>60.39198169687499</v>
+        <v>60.39198169687497</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>33.83756550171027</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>185.718246820946</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>311.1853513637215</v>
       </c>
       <c r="M18" t="n">
-        <v>18.1706367667461</v>
+        <v>416.472156745078</v>
       </c>
       <c r="N18" t="n">
         <v>424.8565623397712</v>
       </c>
       <c r="O18" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P18" t="n">
-        <v>253.8735974304457</v>
+        <v>192.7539165182803</v>
       </c>
       <c r="Q18" t="n">
-        <v>117.6260267435103</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36051,13 +36051,13 @@
         <v>86.87713746566806</v>
       </c>
       <c r="N19" t="n">
-        <v>90.00458714985677</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O19" t="n">
-        <v>67.64229222531253</v>
+        <v>67.64229222531252</v>
       </c>
       <c r="P19" t="n">
-        <v>34.42261465240281</v>
+        <v>34.4226146524028</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.61519912167015</v>
+        <v>43.61519912167014</v>
       </c>
       <c r="K20" t="n">
         <v>188.8795872392632</v>
@@ -36139,7 +36139,7 @@
         <v>184.2325509839143</v>
       </c>
       <c r="Q20" t="n">
-        <v>60.39198169687499</v>
+        <v>60.39198169687497</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>250.0656704515561</v>
+        <v>311.1853513637215</v>
       </c>
       <c r="M21" t="n">
         <v>416.472156745078</v>
@@ -36212,10 +36212,10 @@
         <v>424.8565623397712</v>
       </c>
       <c r="O21" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P21" t="n">
-        <v>253.8735974304457</v>
+        <v>192.7539165182803</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36288,13 +36288,13 @@
         <v>86.87713746566806</v>
       </c>
       <c r="N22" t="n">
-        <v>90.00458714985677</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O22" t="n">
-        <v>67.64229222531253</v>
+        <v>67.64229222531252</v>
       </c>
       <c r="P22" t="n">
-        <v>34.42261465240281</v>
+        <v>34.4226146524028</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36352,10 +36352,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>8.253779253778942e-13</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>43.61519912167015</v>
+        <v>43.61519912167014</v>
       </c>
       <c r="K23" t="n">
         <v>188.8795872392632</v>
@@ -36376,7 +36376,7 @@
         <v>184.2325509839143</v>
       </c>
       <c r="Q23" t="n">
-        <v>60.39198169687499</v>
+        <v>60.39198169687497</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>311.1853513637215</v>
+        <v>250.0656704515561</v>
       </c>
       <c r="M24" t="n">
         <v>416.472156745078</v>
       </c>
       <c r="N24" t="n">
-        <v>424.8565623397715</v>
+        <v>424.8565623397712</v>
       </c>
       <c r="O24" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P24" t="n">
-        <v>192.7539165182808</v>
+        <v>253.8735974304457</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36525,13 +36525,13 @@
         <v>86.87713746566806</v>
       </c>
       <c r="N25" t="n">
-        <v>90.00458714985677</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O25" t="n">
-        <v>67.64229222531253</v>
+        <v>67.64229222531252</v>
       </c>
       <c r="P25" t="n">
-        <v>34.42261465240281</v>
+        <v>34.4226146524028</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36598,10 +36598,10 @@
         <v>331.2252663149291</v>
       </c>
       <c r="L26" t="n">
-        <v>429.1615272277715</v>
+        <v>429.1615272277716</v>
       </c>
       <c r="M26" t="n">
-        <v>476.8495270343347</v>
+        <v>476.8495270343348</v>
       </c>
       <c r="N26" t="n">
         <v>466.5882348737064</v>
@@ -36613,10 +36613,10 @@
         <v>326.5782300595802</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.7376607725406</v>
+        <v>202.7376607725409</v>
       </c>
       <c r="R26" t="n">
-        <v>33.26301577779111</v>
+        <v>33.26301577779114</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,10 +36683,10 @@
         <v>416.472156745078</v>
       </c>
       <c r="N27" t="n">
-        <v>443.0492102334822</v>
+        <v>443.0492102334821</v>
       </c>
       <c r="O27" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P27" t="n">
         <v>253.8735974304457</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>70.05025791860797</v>
       </c>
       <c r="K28" t="n">
         <v>154.7571965520995</v>
       </c>
       <c r="L28" t="n">
-        <v>72.24975725053065</v>
+        <v>153.6712688813138</v>
       </c>
       <c r="M28" t="n">
-        <v>229.2228165413339</v>
+        <v>86.87713746566806</v>
       </c>
       <c r="N28" t="n">
-        <v>90.00458714985677</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O28" t="n">
-        <v>209.9879713009784</v>
+        <v>67.64229222531252</v>
       </c>
       <c r="P28" t="n">
-        <v>43.54870512612857</v>
+        <v>176.7682937280687</v>
       </c>
       <c r="Q28" t="n">
-        <v>82.17884268858087</v>
+        <v>82.1788426885809</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36920,10 +36920,10 @@
         <v>416.472156745078</v>
       </c>
       <c r="N30" t="n">
-        <v>443.0492102334822</v>
+        <v>443.0492102334821</v>
       </c>
       <c r="O30" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P30" t="n">
         <v>253.8735974304457</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>9.126090473725634</v>
+        <v>70.05025791860794</v>
       </c>
       <c r="K31" t="n">
         <v>12.41151747643367</v>
@@ -36996,19 +36996,19 @@
         <v>214.5954363261965</v>
       </c>
       <c r="M31" t="n">
-        <v>86.87713746566806</v>
+        <v>229.2228165413339</v>
       </c>
       <c r="N31" t="n">
-        <v>232.3502662255226</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O31" t="n">
-        <v>67.64229222531253</v>
+        <v>209.9879713009784</v>
       </c>
       <c r="P31" t="n">
-        <v>176.7682937280687</v>
+        <v>34.4226146524028</v>
       </c>
       <c r="Q31" t="n">
-        <v>82.17884268858087</v>
+        <v>21.25467524369878</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>189.8041031026151</v>
+        <v>189.8041031026152</v>
       </c>
       <c r="K32" t="n">
         <v>335.0684912202082</v>
       </c>
       <c r="L32" t="n">
-        <v>433.0047521330506</v>
+        <v>433.0047521330507</v>
       </c>
       <c r="M32" t="n">
-        <v>480.6927519396138</v>
+        <v>387.2848587183456</v>
       </c>
       <c r="N32" t="n">
-        <v>470.4314597789854</v>
+        <v>470.4314597789855</v>
       </c>
       <c r="O32" t="n">
-        <v>405.7676606787943</v>
+        <v>405.7676606787944</v>
       </c>
       <c r="P32" t="n">
-        <v>237.0135617435943</v>
+        <v>330.4214549648593</v>
       </c>
       <c r="Q32" t="n">
-        <v>206.5808856778199</v>
+        <v>206.58088567782</v>
       </c>
       <c r="R32" t="n">
-        <v>37.10624068307018</v>
+        <v>37.10624068307026</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,10 +37157,10 @@
         <v>416.472156745078</v>
       </c>
       <c r="N33" t="n">
-        <v>443.0492102334822</v>
+        <v>443.0492102334821</v>
       </c>
       <c r="O33" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P33" t="n">
         <v>253.8735974304457</v>
@@ -37212,7 +37212,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.02988257114051862</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>73.8934828238871</v>
       </c>
       <c r="K34" t="n">
-        <v>29.47713821927617</v>
+        <v>158.6004214573787</v>
       </c>
       <c r="L34" t="n">
-        <v>218.4386612314756</v>
+        <v>218.4386612314757</v>
       </c>
       <c r="M34" t="n">
-        <v>233.066041446613</v>
+        <v>86.87713746566806</v>
       </c>
       <c r="N34" t="n">
-        <v>236.1934911308017</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O34" t="n">
-        <v>67.64229222531253</v>
+        <v>67.64229222531252</v>
       </c>
       <c r="P34" t="n">
-        <v>34.42261465240281</v>
+        <v>37.73170638730124</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>86.02206759386003</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,10 +37300,10 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>8.864471813759355</v>
+        <v>8.864471813759295</v>
       </c>
       <c r="J35" t="n">
-        <v>237.5930287646026</v>
+        <v>43.61519912167014</v>
       </c>
       <c r="K35" t="n">
         <v>188.8795872392632</v>
@@ -37315,7 +37315,7 @@
         <v>334.5038479586689</v>
       </c>
       <c r="N35" t="n">
-        <v>512.265773742486</v>
+        <v>427.3706073974267</v>
       </c>
       <c r="O35" t="n">
         <v>259.5787566978494</v>
@@ -37324,10 +37324,10 @@
         <v>184.2325509839143</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.39198169687499</v>
+        <v>254.3698113398074</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>84.8951663450577</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>8.208917030804715</v>
+        <v>8.208917030803029</v>
       </c>
       <c r="K36" t="n">
         <v>185.718246820946</v>
@@ -37394,10 +37394,10 @@
         <v>416.472156745078</v>
       </c>
       <c r="N36" t="n">
-        <v>443.0492102334822</v>
+        <v>443.0492102334821</v>
       </c>
       <c r="O36" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P36" t="n">
         <v>253.8735974304457</v>
@@ -37437,7 +37437,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.380206960197737</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -37473,19 +37473,19 @@
         <v>86.87713746566806</v>
       </c>
       <c r="N37" t="n">
-        <v>90.00458714985677</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O37" t="n">
-        <v>67.64229222531253</v>
+        <v>67.64229222531252</v>
       </c>
       <c r="P37" t="n">
-        <v>34.42261465240281</v>
+        <v>34.4226146524028</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>1.380206960197249</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37537,10 +37537,10 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2.909860115272824</v>
+        <v>8.864471813759295</v>
       </c>
       <c r="J38" t="n">
-        <v>43.61519912167015</v>
+        <v>43.61519912167014</v>
       </c>
       <c r="K38" t="n">
         <v>188.8795872392632</v>
@@ -37555,16 +37555,16 @@
         <v>324.2425557980405</v>
       </c>
       <c r="O38" t="n">
-        <v>259.5787566978494</v>
+        <v>362.7068082972365</v>
       </c>
       <c r="P38" t="n">
-        <v>378.2103806268468</v>
+        <v>378.2103806268467</v>
       </c>
       <c r="Q38" t="n">
-        <v>254.3698113398074</v>
+        <v>60.39198169687497</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>84.8951663450577</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>8.208917030804715</v>
+        <v>8.208917030803926</v>
       </c>
       <c r="K39" t="n">
         <v>185.718246820946</v>
@@ -37631,10 +37631,10 @@
         <v>416.472156745078</v>
       </c>
       <c r="N39" t="n">
-        <v>443.0492102334822</v>
+        <v>443.0492102334821</v>
       </c>
       <c r="O39" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P39" t="n">
         <v>253.8735974304457</v>
@@ -37710,19 +37710,19 @@
         <v>86.87713746566806</v>
       </c>
       <c r="N40" t="n">
-        <v>90.00458714985677</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O40" t="n">
-        <v>67.64229222531253</v>
+        <v>67.64229222531252</v>
       </c>
       <c r="P40" t="n">
-        <v>34.42261465240281</v>
+        <v>34.4226146524028</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>1.380206960197651</v>
+        <v>1.380206960197824</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>43.61519912167015</v>
+        <v>43.61519912167014</v>
       </c>
       <c r="K41" t="n">
-        <v>382.8574168821957</v>
+        <v>188.8795872392632</v>
       </c>
       <c r="L41" t="n">
         <v>286.8158481521057</v>
       </c>
       <c r="M41" t="n">
-        <v>523.5700481068952</v>
+        <v>334.5038479586689</v>
       </c>
       <c r="N41" t="n">
         <v>324.2425557980405</v>
@@ -37795,13 +37795,13 @@
         <v>259.5787566978494</v>
       </c>
       <c r="P41" t="n">
-        <v>184.2325509839143</v>
+        <v>296.2250743970608</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.39198169687499</v>
+        <v>254.3698113398075</v>
       </c>
       <c r="R41" t="n">
-        <v>7.821489609978475</v>
+        <v>84.89516634505773</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>33.83756550171027</v>
+        <v>8.208917030803926</v>
       </c>
       <c r="K42" t="n">
         <v>185.718246820946</v>
@@ -37868,16 +37868,16 @@
         <v>416.472156745078</v>
       </c>
       <c r="N42" t="n">
-        <v>443.0492102334822</v>
+        <v>443.0492102334821</v>
       </c>
       <c r="O42" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P42" t="n">
         <v>253.8735974304457</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.99737827260456</v>
+        <v>117.6260267435103</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37920,7 +37920,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.380206960198068</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -37947,19 +37947,19 @@
         <v>86.87713746566806</v>
       </c>
       <c r="N43" t="n">
-        <v>90.00458714985677</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O43" t="n">
-        <v>67.64229222531253</v>
+        <v>67.64229222531252</v>
       </c>
       <c r="P43" t="n">
-        <v>34.42261465240281</v>
+        <v>34.4226146524028</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>1.380206960197594</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8.864471813759241</v>
+        <v>8.864471813759295</v>
       </c>
       <c r="J44" t="n">
-        <v>43.61519912167015</v>
+        <v>43.61519912167014</v>
       </c>
       <c r="K44" t="n">
         <v>188.8795872392632</v>
       </c>
       <c r="L44" t="n">
-        <v>286.8158481521057</v>
+        <v>474.8390660965506</v>
       </c>
       <c r="M44" t="n">
         <v>334.5038479586689</v>
       </c>
       <c r="N44" t="n">
-        <v>324.2425557980405</v>
+        <v>518.2203854409729</v>
       </c>
       <c r="O44" t="n">
-        <v>362.7068082972376</v>
+        <v>259.5787566978494</v>
       </c>
       <c r="P44" t="n">
         <v>184.2325509839143</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.3698113398074</v>
+        <v>60.39198169687497</v>
       </c>
       <c r="R44" t="n">
-        <v>84.89516634505765</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>33.83756550171027</v>
+        <v>8.208917030803926</v>
       </c>
       <c r="K45" t="n">
         <v>185.718246820946</v>
@@ -38105,13 +38105,13 @@
         <v>416.472156745078</v>
       </c>
       <c r="N45" t="n">
-        <v>443.0492102334822</v>
+        <v>443.0492102334821</v>
       </c>
       <c r="O45" t="n">
-        <v>336.9923406815363</v>
+        <v>336.9923406815362</v>
       </c>
       <c r="P45" t="n">
-        <v>228.2449489595399</v>
+        <v>253.8735974304457</v>
       </c>
       <c r="Q45" t="n">
         <v>117.6260267435103</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.380206960197773</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38184,19 +38184,19 @@
         <v>86.87713746566806</v>
       </c>
       <c r="N46" t="n">
-        <v>90.00458714985677</v>
+        <v>90.00458714985676</v>
       </c>
       <c r="O46" t="n">
-        <v>67.64229222531253</v>
+        <v>67.64229222531252</v>
       </c>
       <c r="P46" t="n">
-        <v>34.42261465240281</v>
+        <v>34.4226146524028</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1.380206960198053</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
